--- a/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>REDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>59000</v>
+        <v>58300</v>
       </c>
       <c r="E8" s="3">
-        <v>52700</v>
+        <v>57500</v>
       </c>
       <c r="F8" s="3">
-        <v>48100</v>
+        <v>51400</v>
       </c>
       <c r="G8" s="3">
-        <v>50800</v>
+        <v>46900</v>
       </c>
       <c r="H8" s="3">
-        <v>49800</v>
+        <v>49600</v>
       </c>
       <c r="I8" s="3">
-        <v>43100</v>
+        <v>48600</v>
       </c>
       <c r="J8" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K8" s="3">
         <v>38800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>38600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28200</v>
+        <v>25700</v>
       </c>
       <c r="E9" s="3">
-        <v>23000</v>
+        <v>27500</v>
       </c>
       <c r="F9" s="3">
-        <v>22200</v>
+        <v>22500</v>
       </c>
       <c r="G9" s="3">
         <v>21600</v>
       </c>
       <c r="H9" s="3">
-        <v>23500</v>
+        <v>21000</v>
       </c>
       <c r="I9" s="3">
-        <v>19600</v>
+        <v>22900</v>
       </c>
       <c r="J9" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K9" s="3">
         <v>18000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30800</v>
+        <v>32600</v>
       </c>
       <c r="E10" s="3">
-        <v>29700</v>
+        <v>30100</v>
       </c>
       <c r="F10" s="3">
-        <v>25900</v>
+        <v>28900</v>
       </c>
       <c r="G10" s="3">
-        <v>29300</v>
+        <v>25300</v>
       </c>
       <c r="H10" s="3">
-        <v>26300</v>
+        <v>28500</v>
       </c>
       <c r="I10" s="3">
-        <v>23400</v>
+        <v>25700</v>
       </c>
       <c r="J10" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K10" s="3">
         <v>20800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>21200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16900</v>
-      </c>
-      <c r="O10" s="3">
-        <v>14700</v>
       </c>
       <c r="P10" s="3">
         <v>14700</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="E17" s="3">
-        <v>46500</v>
+        <v>48300</v>
       </c>
       <c r="F17" s="3">
-        <v>40500</v>
+        <v>45300</v>
       </c>
       <c r="G17" s="3">
-        <v>42200</v>
+        <v>39500</v>
       </c>
       <c r="H17" s="3">
-        <v>42900</v>
+        <v>41200</v>
       </c>
       <c r="I17" s="3">
-        <v>34800</v>
+        <v>41900</v>
       </c>
       <c r="J17" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K17" s="3">
         <v>32800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9400</v>
+        <v>8500</v>
       </c>
       <c r="E18" s="3">
-        <v>6200</v>
+        <v>9200</v>
       </c>
       <c r="F18" s="3">
-        <v>7600</v>
+        <v>6100</v>
       </c>
       <c r="G18" s="3">
-        <v>8600</v>
+        <v>7400</v>
       </c>
       <c r="H18" s="3">
-        <v>6900</v>
+        <v>8400</v>
       </c>
       <c r="I18" s="3">
-        <v>8300</v>
+        <v>6700</v>
       </c>
       <c r="J18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1210,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1200</v>
       </c>
       <c r="H20" s="3">
         <v>1100</v>
       </c>
       <c r="I20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1248,158 +1284,170 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>-10100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>11100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>13200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G22" s="3">
         <v>1300</v>
       </c>
       <c r="H22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I22" s="3">
         <v>1200</v>
       </c>
       <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8800</v>
+        <v>8100</v>
       </c>
       <c r="E23" s="3">
-        <v>5900</v>
+        <v>8600</v>
       </c>
       <c r="F23" s="3">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="G23" s="3">
-        <v>8500</v>
+        <v>7600</v>
       </c>
       <c r="H23" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="N23" s="3">
         <v>6800</v>
       </c>
-      <c r="I23" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>6500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>6800</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="E24" s="3">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="F24" s="3">
         <v>2700</v>
       </c>
       <c r="G24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
-        <v>2500</v>
-      </c>
       <c r="I24" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5300</v>
+        <v>6900</v>
       </c>
       <c r="E26" s="3">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="F26" s="3">
-        <v>5200</v>
+        <v>3100</v>
       </c>
       <c r="G26" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H26" s="3">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="I26" s="3">
-        <v>6200</v>
+        <v>4200</v>
       </c>
       <c r="J26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5600</v>
+        <v>7200</v>
       </c>
       <c r="E27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F27" s="3">
         <v>3000</v>
       </c>
-      <c r="F27" s="3">
-        <v>5200</v>
-      </c>
       <c r="G27" s="3">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="H27" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="M27" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N27" s="3">
         <v>4700</v>
       </c>
-      <c r="I27" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1200</v>
       </c>
       <c r="H32" s="3">
         <v>-1100</v>
       </c>
       <c r="I32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5600</v>
+        <v>7200</v>
       </c>
       <c r="E33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F33" s="3">
         <v>3000</v>
       </c>
-      <c r="F33" s="3">
-        <v>5200</v>
-      </c>
       <c r="G33" s="3">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="H33" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="M33" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N33" s="3">
         <v>4700</v>
       </c>
-      <c r="I33" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5600</v>
+        <v>7200</v>
       </c>
       <c r="E35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F35" s="3">
         <v>3000</v>
       </c>
-      <c r="F35" s="3">
-        <v>5200</v>
-      </c>
       <c r="G35" s="3">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="H35" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="M35" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N35" s="3">
         <v>4700</v>
       </c>
-      <c r="I35" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,41 +2052,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>130300</v>
+        <v>139800</v>
       </c>
       <c r="E41" s="3">
-        <v>115200</v>
+        <v>127100</v>
       </c>
       <c r="F41" s="3">
-        <v>181500</v>
+        <v>112400</v>
       </c>
       <c r="G41" s="3">
-        <v>184800</v>
+        <v>177000</v>
       </c>
       <c r="H41" s="3">
-        <v>146500</v>
+        <v>180300</v>
       </c>
       <c r="I41" s="3">
-        <v>123200</v>
+        <v>142900</v>
       </c>
       <c r="J41" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K41" s="3">
         <v>132700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>156700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,41 +2097,44 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>28700</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
+        <v>28000</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>14300</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>28700</v>
+        <v>14000</v>
       </c>
       <c r="J42" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K42" s="3">
         <v>15100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>14800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2055,41 +2144,44 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14900</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>15400</v>
+        <v>14600</v>
       </c>
       <c r="F43" s="3">
-        <v>400</v>
+        <v>15000</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
-        <v>22500</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K43" s="3">
+        <v>22100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M43" s="3">
         <v>22400</v>
       </c>
-      <c r="J43" s="3">
-        <v>22100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>22400</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2099,41 +2191,44 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1300</v>
       </c>
-      <c r="F44" s="3">
-        <v>1200</v>
-      </c>
       <c r="G44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H44" s="3">
         <v>1600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1200</v>
       </c>
       <c r="K44" s="3">
         <v>1200</v>
       </c>
       <c r="L44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2143,41 +2238,44 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13900</v>
+        <v>10500</v>
       </c>
       <c r="E45" s="3">
-        <v>17100</v>
+        <v>13600</v>
       </c>
       <c r="F45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="L45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M45" s="3">
         <v>11200</v>
       </c>
-      <c r="G45" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>14800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>13800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>16000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>11200</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,41 +2285,44 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>160300</v>
+        <v>151800</v>
       </c>
       <c r="E46" s="3">
-        <v>177800</v>
+        <v>156300</v>
       </c>
       <c r="F46" s="3">
-        <v>194200</v>
+        <v>173400</v>
       </c>
       <c r="G46" s="3">
-        <v>201200</v>
+        <v>189500</v>
       </c>
       <c r="H46" s="3">
-        <v>200000</v>
+        <v>196300</v>
       </c>
       <c r="I46" s="3">
-        <v>189900</v>
+        <v>195100</v>
       </c>
       <c r="J46" s="3">
+        <v>185300</v>
+      </c>
+      <c r="K46" s="3">
         <v>187000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>169600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>143300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2231,16 +2332,19 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
+        <v>4600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2257,8 +2361,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2275,41 +2379,44 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>112000</v>
+        <v>104600</v>
       </c>
       <c r="E48" s="3">
-        <v>111300</v>
+        <v>109300</v>
       </c>
       <c r="F48" s="3">
-        <v>18900</v>
+        <v>108600</v>
       </c>
       <c r="G48" s="3">
-        <v>36800</v>
+        <v>18500</v>
       </c>
       <c r="H48" s="3">
-        <v>17100</v>
+        <v>35900</v>
       </c>
       <c r="I48" s="3">
-        <v>15800</v>
+        <v>16700</v>
       </c>
       <c r="J48" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K48" s="3">
         <v>14200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,41 +2426,44 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>123800</v>
+        <v>122600</v>
       </c>
       <c r="E49" s="3">
-        <v>97800</v>
+        <v>120700</v>
       </c>
       <c r="F49" s="3">
-        <v>96800</v>
+        <v>95400</v>
       </c>
       <c r="G49" s="3">
-        <v>99000</v>
+        <v>94400</v>
       </c>
       <c r="H49" s="3">
-        <v>99500</v>
+        <v>96600</v>
       </c>
       <c r="I49" s="3">
         <v>97100</v>
       </c>
       <c r="J49" s="3">
+        <v>94700</v>
+      </c>
+      <c r="K49" s="3">
         <v>94000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>100400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>97300</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,41 +2567,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10800</v>
+        <v>8500</v>
       </c>
       <c r="E52" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="F52" s="3">
-        <v>95100</v>
+        <v>10900</v>
       </c>
       <c r="G52" s="3">
-        <v>8600</v>
+        <v>92700</v>
       </c>
       <c r="H52" s="3">
-        <v>7200</v>
+        <v>8400</v>
       </c>
       <c r="I52" s="3">
-        <v>8200</v>
+        <v>7000</v>
       </c>
       <c r="J52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K52" s="3">
         <v>7500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +2661,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>411600</v>
+        <v>392200</v>
       </c>
       <c r="E54" s="3">
-        <v>398100</v>
+        <v>401500</v>
       </c>
       <c r="F54" s="3">
-        <v>405100</v>
+        <v>388300</v>
       </c>
       <c r="G54" s="3">
-        <v>327200</v>
+        <v>395100</v>
       </c>
       <c r="H54" s="3">
-        <v>323800</v>
+        <v>319200</v>
       </c>
       <c r="I54" s="3">
-        <v>311000</v>
+        <v>315900</v>
       </c>
       <c r="J54" s="3">
+        <v>303400</v>
+      </c>
+      <c r="K54" s="3">
         <v>302800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>290300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>259900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,32 +2758,32 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1200</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
       </c>
       <c r="H57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
-        <v>2100</v>
-      </c>
       <c r="J57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,41 +2793,44 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19700</v>
+        <v>18800</v>
       </c>
       <c r="E58" s="3">
-        <v>11800</v>
+        <v>19300</v>
       </c>
       <c r="F58" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="G58" s="3">
-        <v>11800</v>
+        <v>11300</v>
       </c>
       <c r="H58" s="3">
-        <v>13500</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+        <v>11500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>13200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>36600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2707,41 +2840,44 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>165900</v>
+        <v>152800</v>
       </c>
       <c r="E59" s="3">
-        <v>161000</v>
+        <v>161800</v>
       </c>
       <c r="F59" s="3">
-        <v>185300</v>
+        <v>157000</v>
       </c>
       <c r="G59" s="3">
-        <v>170400</v>
+        <v>180700</v>
       </c>
       <c r="H59" s="3">
-        <v>172900</v>
+        <v>166300</v>
       </c>
       <c r="I59" s="3">
-        <v>167600</v>
+        <v>168600</v>
       </c>
       <c r="J59" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K59" s="3">
         <v>173000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>148300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>139200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2751,41 +2887,44 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>186800</v>
+        <v>172600</v>
       </c>
       <c r="E60" s="3">
-        <v>174100</v>
+        <v>182200</v>
       </c>
       <c r="F60" s="3">
-        <v>198000</v>
+        <v>169900</v>
       </c>
       <c r="G60" s="3">
-        <v>183500</v>
+        <v>193200</v>
       </c>
       <c r="H60" s="3">
-        <v>188100</v>
+        <v>179000</v>
       </c>
       <c r="I60" s="3">
-        <v>169700</v>
+        <v>183400</v>
       </c>
       <c r="J60" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K60" s="3">
         <v>174200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>153000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>176200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2795,41 +2934,44 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54300</v>
+        <v>51800</v>
       </c>
       <c r="E61" s="3">
-        <v>72500</v>
+        <v>52900</v>
       </c>
       <c r="F61" s="3">
-        <v>70600</v>
+        <v>70800</v>
       </c>
       <c r="G61" s="3">
-        <v>72100</v>
+        <v>68900</v>
       </c>
       <c r="H61" s="3">
-        <v>70000</v>
+        <v>70300</v>
       </c>
       <c r="I61" s="3">
-        <v>80200</v>
+        <v>68300</v>
       </c>
       <c r="J61" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K61" s="3">
         <v>75700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>92500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>97200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2839,41 +2981,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>89800</v>
+        <v>80300</v>
       </c>
       <c r="E62" s="3">
-        <v>79700</v>
+        <v>87600</v>
       </c>
       <c r="F62" s="3">
-        <v>68900</v>
+        <v>77800</v>
       </c>
       <c r="G62" s="3">
-        <v>8400</v>
+        <v>67200</v>
       </c>
       <c r="H62" s="3">
-        <v>5900</v>
+        <v>8200</v>
       </c>
       <c r="I62" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="J62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3169,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>333300</v>
+        <v>306900</v>
       </c>
       <c r="E66" s="3">
-        <v>324300</v>
+        <v>325200</v>
       </c>
       <c r="F66" s="3">
-        <v>335400</v>
+        <v>316400</v>
       </c>
       <c r="G66" s="3">
-        <v>261900</v>
+        <v>327200</v>
       </c>
       <c r="H66" s="3">
-        <v>261400</v>
+        <v>255400</v>
       </c>
       <c r="I66" s="3">
-        <v>253800</v>
+        <v>255000</v>
       </c>
       <c r="J66" s="3">
+        <v>247600</v>
+      </c>
+      <c r="K66" s="3">
         <v>253000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>244300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>272800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,41 +3423,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10500</v>
+        <v>-3100</v>
       </c>
       <c r="E72" s="3">
-        <v>-16200</v>
+        <v>-10300</v>
       </c>
       <c r="F72" s="3">
-        <v>-19200</v>
+        <v>-15800</v>
       </c>
       <c r="G72" s="3">
-        <v>-24400</v>
+        <v>-18700</v>
       </c>
       <c r="H72" s="3">
-        <v>-29000</v>
+        <v>-23800</v>
       </c>
       <c r="I72" s="3">
-        <v>-33700</v>
+        <v>-28200</v>
       </c>
       <c r="J72" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-39800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,41 +3611,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78200</v>
+        <v>85200</v>
       </c>
       <c r="E76" s="3">
-        <v>73800</v>
+        <v>76300</v>
       </c>
       <c r="F76" s="3">
-        <v>69700</v>
+        <v>71900</v>
       </c>
       <c r="G76" s="3">
-        <v>65400</v>
+        <v>68000</v>
       </c>
       <c r="H76" s="3">
-        <v>62400</v>
+        <v>63800</v>
       </c>
       <c r="I76" s="3">
-        <v>57300</v>
+        <v>60900</v>
       </c>
       <c r="J76" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K76" s="3">
         <v>49800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-12900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5600</v>
+        <v>7200</v>
       </c>
       <c r="E81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F81" s="3">
         <v>3000</v>
       </c>
-      <c r="F81" s="3">
-        <v>5200</v>
-      </c>
       <c r="G81" s="3">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="H81" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="M81" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N81" s="3">
         <v>4700</v>
       </c>
-      <c r="I81" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>REDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,244 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58300</v>
+        <v>24000</v>
       </c>
       <c r="E8" s="3">
-        <v>57500</v>
+        <v>15800</v>
       </c>
       <c r="F8" s="3">
+        <v>60400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>59700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>53300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>48700</v>
+      </c>
+      <c r="J8" s="3">
         <v>51400</v>
       </c>
-      <c r="G8" s="3">
-        <v>46900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>49600</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>48600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>42000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>38800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>40400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>38600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>33700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>31200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>28100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25700</v>
+        <v>20600</v>
       </c>
       <c r="E9" s="3">
-        <v>27500</v>
+        <v>20700</v>
       </c>
       <c r="F9" s="3">
-        <v>22500</v>
+        <v>26700</v>
       </c>
       <c r="G9" s="3">
-        <v>21600</v>
+        <v>28500</v>
       </c>
       <c r="H9" s="3">
-        <v>21000</v>
+        <v>23300</v>
       </c>
       <c r="I9" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K9" s="3">
         <v>22900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>19200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>18000</v>
       </c>
       <c r="L9" s="3">
         <v>19200</v>
       </c>
       <c r="M9" s="3">
+        <v>18000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>19200</v>
+      </c>
+      <c r="O9" s="3">
         <v>18800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>14800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>14300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>13400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32600</v>
+        <v>3400</v>
       </c>
       <c r="E10" s="3">
-        <v>30100</v>
+        <v>-4900</v>
       </c>
       <c r="F10" s="3">
-        <v>28900</v>
+        <v>33800</v>
       </c>
       <c r="G10" s="3">
-        <v>25300</v>
+        <v>31200</v>
       </c>
       <c r="H10" s="3">
-        <v>28500</v>
+        <v>30000</v>
       </c>
       <c r="I10" s="3">
+        <v>26200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K10" s="3">
         <v>25700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>22900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>20800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>21200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>19800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>18900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>16900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>14700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>49800</v>
+        <v>34700</v>
       </c>
       <c r="E17" s="3">
-        <v>48300</v>
+        <v>34900</v>
       </c>
       <c r="F17" s="3">
-        <v>45300</v>
+        <v>51600</v>
       </c>
       <c r="G17" s="3">
-        <v>39500</v>
+        <v>50200</v>
       </c>
       <c r="H17" s="3">
-        <v>41200</v>
+        <v>47000</v>
       </c>
       <c r="I17" s="3">
+        <v>41000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42700</v>
+      </c>
+      <c r="K17" s="3">
         <v>41900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>33900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>32800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>59500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>32200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>27200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>25100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>26100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8500</v>
+        <v>-10700</v>
       </c>
       <c r="E18" s="3">
-        <v>9200</v>
+        <v>-19100</v>
       </c>
       <c r="F18" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="P18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>6100</v>
       </c>
-      <c r="G18" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>8100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>6400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>6500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,55 +1277,63 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>900</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>400</v>
+      </c>
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1287,37 +1361,43 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>-10100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>11100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>13200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
-        <v>1200</v>
-      </c>
       <c r="F22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>1300</v>
@@ -1326,22 +1406,22 @@
         <v>1300</v>
       </c>
       <c r="I22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J22" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
       </c>
       <c r="L22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N22" s="3">
         <v>1600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>700</v>
       </c>
       <c r="O22" s="3">
         <v>800</v>
@@ -1350,104 +1430,122 @@
         <v>700</v>
       </c>
       <c r="Q22" s="3">
+        <v>800</v>
+      </c>
+      <c r="R22" s="3">
+        <v>700</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8100</v>
+        <v>-10700</v>
       </c>
       <c r="E23" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J23" s="3">
         <v>8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="K23" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>8300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="P23" s="3">
+        <v>6800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>5800</v>
       </c>
-      <c r="G23" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>8300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>7000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>6500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>6800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>5800</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>-1600</v>
       </c>
       <c r="E24" s="3">
-        <v>3400</v>
+        <v>-2900</v>
       </c>
       <c r="F24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="H24" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6900</v>
+        <v>-9100</v>
       </c>
       <c r="E26" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I26" s="3">
         <v>5200</v>
       </c>
-      <c r="F26" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="H26" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-20500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>3900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>4700</v>
       </c>
       <c r="O26" s="3">
         <v>3900</v>
       </c>
       <c r="P26" s="3">
-        <v>800</v>
+        <v>4700</v>
       </c>
       <c r="Q26" s="3">
         <v>3900</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>800</v>
+      </c>
+      <c r="S26" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7200</v>
+        <v>-8400</v>
       </c>
       <c r="E27" s="3">
-        <v>5500</v>
+        <v>-15100</v>
       </c>
       <c r="F27" s="3">
-        <v>3000</v>
+        <v>7400</v>
       </c>
       <c r="G27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M27" s="3">
         <v>5100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="N27" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="O27" s="3">
         <v>4400</v>
       </c>
-      <c r="I27" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-900</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7200</v>
+        <v>-8400</v>
       </c>
       <c r="E33" s="3">
-        <v>5500</v>
+        <v>-15100</v>
       </c>
       <c r="F33" s="3">
-        <v>3000</v>
+        <v>7400</v>
       </c>
       <c r="G33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M33" s="3">
         <v>5100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="N33" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="O33" s="3">
         <v>4400</v>
       </c>
-      <c r="I33" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7200</v>
+        <v>-8400</v>
       </c>
       <c r="E35" s="3">
-        <v>5500</v>
+        <v>-15100</v>
       </c>
       <c r="F35" s="3">
-        <v>3000</v>
+        <v>7400</v>
       </c>
       <c r="G35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M35" s="3">
         <v>5100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="N35" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="O35" s="3">
         <v>4400</v>
       </c>
-      <c r="I35" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>139800</v>
+        <v>85500</v>
       </c>
       <c r="E41" s="3">
-        <v>127100</v>
+        <v>131200</v>
       </c>
       <c r="F41" s="3">
-        <v>112400</v>
+        <v>145100</v>
       </c>
       <c r="G41" s="3">
-        <v>177000</v>
+        <v>131800</v>
       </c>
       <c r="H41" s="3">
-        <v>180300</v>
+        <v>116600</v>
       </c>
       <c r="I41" s="3">
+        <v>183700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>187100</v>
+      </c>
+      <c r="K41" s="3">
         <v>142900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>120100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>132700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>156700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>93900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2111,246 +2291,276 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L42" s="3">
         <v>28000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>14000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>28000</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>15100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>14800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>14600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>15000</v>
-      </c>
       <c r="G43" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>15600</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>22000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>21800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>22100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>22400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1100</v>
       </c>
       <c r="F44" s="3">
         <v>1300</v>
       </c>
       <c r="G44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J44" s="3">
         <v>1600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10500</v>
+        <v>37300</v>
       </c>
       <c r="E45" s="3">
-        <v>13600</v>
+        <v>12100</v>
       </c>
       <c r="F45" s="3">
-        <v>16700</v>
+        <v>10900</v>
       </c>
       <c r="G45" s="3">
-        <v>10900</v>
+        <v>14100</v>
       </c>
       <c r="H45" s="3">
-        <v>14000</v>
+        <v>17400</v>
       </c>
       <c r="I45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K45" s="3">
         <v>14400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>13400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>10000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>11200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>151800</v>
+        <v>124300</v>
       </c>
       <c r="E46" s="3">
-        <v>156300</v>
+        <v>144700</v>
       </c>
       <c r="F46" s="3">
-        <v>173400</v>
+        <v>157600</v>
       </c>
       <c r="G46" s="3">
-        <v>189500</v>
+        <v>162200</v>
       </c>
       <c r="H46" s="3">
-        <v>196300</v>
+        <v>179900</v>
       </c>
       <c r="I46" s="3">
+        <v>196600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>203700</v>
+      </c>
+      <c r="K46" s="3">
         <v>195100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>185300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>187000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>169600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>143300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E47" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+        <v>4800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2364,11 +2574,11 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2382,102 +2592,120 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>104600</v>
+        <v>107200</v>
       </c>
       <c r="E48" s="3">
-        <v>109300</v>
+        <v>100900</v>
       </c>
       <c r="F48" s="3">
         <v>108600</v>
       </c>
       <c r="G48" s="3">
-        <v>18500</v>
+        <v>113400</v>
       </c>
       <c r="H48" s="3">
-        <v>35900</v>
+        <v>112700</v>
       </c>
       <c r="I48" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K48" s="3">
         <v>16700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>15400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>14900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>13900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>122600</v>
+        <v>127000</v>
       </c>
       <c r="E49" s="3">
-        <v>120700</v>
+        <v>127500</v>
       </c>
       <c r="F49" s="3">
-        <v>95400</v>
+        <v>127200</v>
       </c>
       <c r="G49" s="3">
-        <v>94400</v>
+        <v>125300</v>
       </c>
       <c r="H49" s="3">
-        <v>96600</v>
+        <v>99000</v>
       </c>
       <c r="I49" s="3">
+        <v>98000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K49" s="3">
         <v>97100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>94700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>94000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>100400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>97300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8500</v>
+        <v>13200</v>
       </c>
       <c r="E52" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="F52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G52" s="3">
         <v>10900</v>
       </c>
-      <c r="G52" s="3">
-        <v>92700</v>
-      </c>
       <c r="H52" s="3">
-        <v>8400</v>
+        <v>11300</v>
       </c>
       <c r="I52" s="3">
+        <v>96200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>392200</v>
+        <v>376400</v>
       </c>
       <c r="E54" s="3">
-        <v>401500</v>
+        <v>388700</v>
       </c>
       <c r="F54" s="3">
-        <v>388300</v>
+        <v>406900</v>
       </c>
       <c r="G54" s="3">
-        <v>395100</v>
+        <v>416600</v>
       </c>
       <c r="H54" s="3">
-        <v>319200</v>
+        <v>403000</v>
       </c>
       <c r="I54" s="3">
+        <v>410000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>331200</v>
+      </c>
+      <c r="K54" s="3">
         <v>315900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>303400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>302800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>290300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>259900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +3009,328 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18800</v>
+        <v>19800</v>
       </c>
       <c r="E58" s="3">
-        <v>19300</v>
+        <v>19800</v>
       </c>
       <c r="F58" s="3">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="G58" s="3">
-        <v>11300</v>
+        <v>20000</v>
       </c>
       <c r="H58" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="I58" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K58" s="3">
         <v>13200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>36600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>152800</v>
+        <v>159100</v>
       </c>
       <c r="E59" s="3">
-        <v>161800</v>
+        <v>158600</v>
       </c>
       <c r="F59" s="3">
-        <v>157000</v>
+        <v>158600</v>
       </c>
       <c r="G59" s="3">
-        <v>180700</v>
+        <v>167900</v>
       </c>
       <c r="H59" s="3">
-        <v>166300</v>
+        <v>162900</v>
       </c>
       <c r="I59" s="3">
+        <v>187500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>172500</v>
+      </c>
+      <c r="K59" s="3">
         <v>168600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>163500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>173000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>148300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>139200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>172600</v>
+        <v>179400</v>
       </c>
       <c r="E60" s="3">
-        <v>182200</v>
+        <v>178800</v>
       </c>
       <c r="F60" s="3">
-        <v>169900</v>
+        <v>179100</v>
       </c>
       <c r="G60" s="3">
-        <v>193200</v>
+        <v>189100</v>
       </c>
       <c r="H60" s="3">
-        <v>179000</v>
+        <v>176300</v>
       </c>
       <c r="I60" s="3">
+        <v>200400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>185700</v>
+      </c>
+      <c r="K60" s="3">
         <v>183400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>165600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>174200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>153000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>176200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51800</v>
+        <v>55100</v>
       </c>
       <c r="E61" s="3">
-        <v>52900</v>
+        <v>54900</v>
       </c>
       <c r="F61" s="3">
-        <v>70800</v>
+        <v>53800</v>
       </c>
       <c r="G61" s="3">
-        <v>68900</v>
+        <v>54900</v>
       </c>
       <c r="H61" s="3">
-        <v>70300</v>
+        <v>73400</v>
       </c>
       <c r="I61" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K61" s="3">
         <v>68300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>78200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>75700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>92500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>97200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80300</v>
+        <v>76300</v>
       </c>
       <c r="E62" s="3">
-        <v>87600</v>
+        <v>80500</v>
       </c>
       <c r="F62" s="3">
-        <v>77800</v>
+        <v>83400</v>
       </c>
       <c r="G62" s="3">
-        <v>67200</v>
+        <v>90900</v>
       </c>
       <c r="H62" s="3">
-        <v>8200</v>
+        <v>80700</v>
       </c>
       <c r="I62" s="3">
+        <v>69800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K62" s="3">
         <v>5800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>306900</v>
+        <v>311200</v>
       </c>
       <c r="E66" s="3">
-        <v>325200</v>
+        <v>315300</v>
       </c>
       <c r="F66" s="3">
-        <v>316400</v>
+        <v>318500</v>
       </c>
       <c r="G66" s="3">
-        <v>327200</v>
+        <v>337400</v>
       </c>
       <c r="H66" s="3">
-        <v>255400</v>
+        <v>328300</v>
       </c>
       <c r="I66" s="3">
+        <v>339500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>265000</v>
+      </c>
+      <c r="K66" s="3">
         <v>255000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>247600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>253000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>244300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>272800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3100</v>
+        <v>-26700</v>
       </c>
       <c r="E72" s="3">
-        <v>-10300</v>
+        <v>-18300</v>
       </c>
       <c r="F72" s="3">
-        <v>-15800</v>
+        <v>-3200</v>
       </c>
       <c r="G72" s="3">
-        <v>-18700</v>
+        <v>-10700</v>
       </c>
       <c r="H72" s="3">
-        <v>-23800</v>
+        <v>-16400</v>
       </c>
       <c r="I72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-28200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-32900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-39800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-39900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-19500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>85200</v>
+        <v>65200</v>
       </c>
       <c r="E76" s="3">
-        <v>76300</v>
+        <v>73400</v>
       </c>
       <c r="F76" s="3">
-        <v>71900</v>
+        <v>88400</v>
       </c>
       <c r="G76" s="3">
-        <v>68000</v>
+        <v>79200</v>
       </c>
       <c r="H76" s="3">
-        <v>63800</v>
+        <v>74700</v>
       </c>
       <c r="I76" s="3">
+        <v>70500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K76" s="3">
         <v>60900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>55900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>49800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>46000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-12900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7200</v>
+        <v>-8400</v>
       </c>
       <c r="E81" s="3">
-        <v>5500</v>
+        <v>-15100</v>
       </c>
       <c r="F81" s="3">
-        <v>3000</v>
+        <v>7400</v>
       </c>
       <c r="G81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M81" s="3">
         <v>5100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="N81" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="O81" s="3">
         <v>4400</v>
       </c>
-      <c r="I81" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>REDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24000</v>
+        <v>48700</v>
       </c>
       <c r="E8" s="3">
-        <v>15800</v>
+        <v>25100</v>
       </c>
       <c r="F8" s="3">
-        <v>60400</v>
+        <v>16600</v>
       </c>
       <c r="G8" s="3">
-        <v>59700</v>
+        <v>63300</v>
       </c>
       <c r="H8" s="3">
-        <v>53300</v>
+        <v>62500</v>
       </c>
       <c r="I8" s="3">
-        <v>48700</v>
+        <v>55800</v>
       </c>
       <c r="J8" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K8" s="3">
         <v>51400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>48600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>38800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>33700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20600</v>
+        <v>24800</v>
       </c>
       <c r="E9" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="F9" s="3">
-        <v>26700</v>
+        <v>21700</v>
       </c>
       <c r="G9" s="3">
-        <v>28500</v>
+        <v>27900</v>
       </c>
       <c r="H9" s="3">
-        <v>23300</v>
+        <v>29900</v>
       </c>
       <c r="I9" s="3">
-        <v>22400</v>
+        <v>24400</v>
       </c>
       <c r="J9" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K9" s="3">
         <v>21800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3400</v>
+        <v>23900</v>
       </c>
       <c r="E10" s="3">
-        <v>-4900</v>
+        <v>3600</v>
       </c>
       <c r="F10" s="3">
-        <v>33800</v>
+        <v>-5100</v>
       </c>
       <c r="G10" s="3">
-        <v>31200</v>
+        <v>35400</v>
       </c>
       <c r="H10" s="3">
-        <v>30000</v>
+        <v>32700</v>
       </c>
       <c r="I10" s="3">
-        <v>26200</v>
+        <v>31400</v>
       </c>
       <c r="J10" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K10" s="3">
         <v>29600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>21200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16900</v>
-      </c>
-      <c r="R10" s="3">
-        <v>14700</v>
       </c>
       <c r="S10" s="3">
         <v>14700</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34700</v>
+        <v>45700</v>
       </c>
       <c r="E17" s="3">
-        <v>34900</v>
+        <v>36300</v>
       </c>
       <c r="F17" s="3">
-        <v>51600</v>
+        <v>36600</v>
       </c>
       <c r="G17" s="3">
-        <v>50200</v>
+        <v>54100</v>
       </c>
       <c r="H17" s="3">
-        <v>47000</v>
+        <v>52500</v>
       </c>
       <c r="I17" s="3">
-        <v>41000</v>
+        <v>49300</v>
       </c>
       <c r="J17" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K17" s="3">
         <v>42700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>59500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>25100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>26100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10700</v>
+        <v>3000</v>
       </c>
       <c r="E18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>8700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O18" s="3">
         <v>-19100</v>
       </c>
-      <c r="F18" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>8700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>6700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>8100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>6000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
-        <v>600</v>
-      </c>
       <c r="H20" s="3">
+        <v>700</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
-        <v>1500</v>
-      </c>
       <c r="J20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1367,185 +1404,197 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>-10100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>11100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>13200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
       </c>
       <c r="I22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10700</v>
+        <v>5100</v>
       </c>
       <c r="E23" s="3">
-        <v>-19100</v>
+        <v>-11200</v>
       </c>
       <c r="F23" s="3">
-        <v>8400</v>
+        <v>-20000</v>
       </c>
       <c r="G23" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="H23" s="3">
-        <v>6000</v>
+        <v>9300</v>
       </c>
       <c r="I23" s="3">
-        <v>7900</v>
+        <v>6300</v>
       </c>
       <c r="J23" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K23" s="3">
         <v>8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-19200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1600</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
-        <v>-2900</v>
+        <v>-1700</v>
       </c>
       <c r="F24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
-        <v>3500</v>
-      </c>
       <c r="H24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J24" s="3">
         <v>2800</v>
       </c>
-      <c r="I24" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9100</v>
+        <v>4500</v>
       </c>
       <c r="E26" s="3">
-        <v>-16200</v>
+        <v>-9500</v>
       </c>
       <c r="F26" s="3">
-        <v>7200</v>
+        <v>-17000</v>
       </c>
       <c r="G26" s="3">
-        <v>5400</v>
+        <v>7500</v>
       </c>
       <c r="H26" s="3">
-        <v>3200</v>
+        <v>5700</v>
       </c>
       <c r="I26" s="3">
-        <v>5200</v>
+        <v>3400</v>
       </c>
       <c r="J26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8400</v>
+        <v>4300</v>
       </c>
       <c r="E27" s="3">
-        <v>-15100</v>
+        <v>-8800</v>
       </c>
       <c r="F27" s="3">
-        <v>7400</v>
+        <v>-15800</v>
       </c>
       <c r="G27" s="3">
-        <v>5700</v>
+        <v>7800</v>
       </c>
       <c r="H27" s="3">
-        <v>3100</v>
+        <v>6000</v>
       </c>
       <c r="I27" s="3">
-        <v>5300</v>
+        <v>3200</v>
       </c>
       <c r="J27" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="K27" s="3">
         <v>4600</v>
       </c>
       <c r="L27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M27" s="3">
         <v>6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-600</v>
-      </c>
       <c r="H32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1500</v>
-      </c>
       <c r="J32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8400</v>
+        <v>4300</v>
       </c>
       <c r="E33" s="3">
-        <v>-15100</v>
+        <v>-8800</v>
       </c>
       <c r="F33" s="3">
-        <v>7400</v>
+        <v>-15800</v>
       </c>
       <c r="G33" s="3">
-        <v>5700</v>
+        <v>7800</v>
       </c>
       <c r="H33" s="3">
-        <v>3100</v>
+        <v>6000</v>
       </c>
       <c r="I33" s="3">
-        <v>5300</v>
+        <v>3200</v>
       </c>
       <c r="J33" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="K33" s="3">
         <v>4600</v>
       </c>
       <c r="L33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M33" s="3">
         <v>6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8400</v>
+        <v>4300</v>
       </c>
       <c r="E35" s="3">
-        <v>-15100</v>
+        <v>-8800</v>
       </c>
       <c r="F35" s="3">
-        <v>7400</v>
+        <v>-15800</v>
       </c>
       <c r="G35" s="3">
-        <v>5700</v>
+        <v>7800</v>
       </c>
       <c r="H35" s="3">
-        <v>3100</v>
+        <v>6000</v>
       </c>
       <c r="I35" s="3">
-        <v>5300</v>
+        <v>3200</v>
       </c>
       <c r="J35" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="K35" s="3">
         <v>4600</v>
       </c>
       <c r="L35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M35" s="3">
         <v>6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>85500</v>
+        <v>102900</v>
       </c>
       <c r="E41" s="3">
-        <v>131200</v>
+        <v>89500</v>
       </c>
       <c r="F41" s="3">
-        <v>145100</v>
+        <v>137400</v>
       </c>
       <c r="G41" s="3">
-        <v>131800</v>
+        <v>152000</v>
       </c>
       <c r="H41" s="3">
-        <v>116600</v>
+        <v>138100</v>
       </c>
       <c r="I41" s="3">
-        <v>183700</v>
+        <v>122100</v>
       </c>
       <c r="J41" s="3">
+        <v>192400</v>
+      </c>
+      <c r="K41" s="3">
         <v>187100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>142900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>132700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>156700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2297,33 +2387,33 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>29000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
+        <v>30400</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>14000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>28000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
         <v>14800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2333,50 +2423,53 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>15100</v>
-      </c>
       <c r="H43" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>16400</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>22000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2386,13 +2479,16 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="3">
         <v>1200</v>
@@ -2401,35 +2497,35 @@
         <v>1300</v>
       </c>
       <c r="G44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
-        <v>1300</v>
-      </c>
       <c r="I44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1200</v>
       </c>
       <c r="N44" s="3">
         <v>1200</v>
       </c>
       <c r="O44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P44" s="3">
         <v>1000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37300</v>
+        <v>27600</v>
       </c>
       <c r="E45" s="3">
-        <v>12100</v>
+        <v>39100</v>
       </c>
       <c r="F45" s="3">
-        <v>10900</v>
+        <v>12700</v>
       </c>
       <c r="G45" s="3">
-        <v>14100</v>
+        <v>11400</v>
       </c>
       <c r="H45" s="3">
-        <v>17400</v>
+        <v>14800</v>
       </c>
       <c r="I45" s="3">
-        <v>11300</v>
+        <v>18200</v>
       </c>
       <c r="J45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K45" s="3">
         <v>14600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>124300</v>
+        <v>132200</v>
       </c>
       <c r="E46" s="3">
-        <v>144700</v>
+        <v>130200</v>
       </c>
       <c r="F46" s="3">
-        <v>157600</v>
+        <v>151600</v>
       </c>
       <c r="G46" s="3">
-        <v>162200</v>
+        <v>165000</v>
       </c>
       <c r="H46" s="3">
-        <v>179900</v>
+        <v>169900</v>
       </c>
       <c r="I46" s="3">
-        <v>196600</v>
+        <v>188500</v>
       </c>
       <c r="J46" s="3">
+        <v>205900</v>
+      </c>
+      <c r="K46" s="3">
         <v>203700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>195100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>185300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>187000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>169600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>143300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2545,25 +2647,28 @@
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F47" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G47" s="3">
-        <v>4800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+        <v>5000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2580,8 +2685,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,50 +2703,53 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>107200</v>
+        <v>108600</v>
       </c>
       <c r="E48" s="3">
-        <v>100900</v>
+        <v>112300</v>
       </c>
       <c r="F48" s="3">
-        <v>108600</v>
+        <v>105700</v>
       </c>
       <c r="G48" s="3">
-        <v>113400</v>
+        <v>113700</v>
       </c>
       <c r="H48" s="3">
-        <v>112700</v>
+        <v>118800</v>
       </c>
       <c r="I48" s="3">
-        <v>19200</v>
+        <v>118000</v>
       </c>
       <c r="J48" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K48" s="3">
         <v>37300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2651,50 +2759,53 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>127000</v>
+        <v>131800</v>
       </c>
       <c r="E49" s="3">
-        <v>127500</v>
+        <v>133000</v>
       </c>
       <c r="F49" s="3">
-        <v>127200</v>
+        <v>133500</v>
       </c>
       <c r="G49" s="3">
-        <v>125300</v>
+        <v>133200</v>
       </c>
       <c r="H49" s="3">
-        <v>99000</v>
+        <v>131200</v>
       </c>
       <c r="I49" s="3">
-        <v>98000</v>
+        <v>103700</v>
       </c>
       <c r="J49" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K49" s="3">
         <v>100200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>97100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>94700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>94000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>100400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>97300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13200</v>
+        <v>14300</v>
       </c>
       <c r="E52" s="3">
-        <v>10800</v>
+        <v>13800</v>
       </c>
       <c r="F52" s="3">
-        <v>8800</v>
+        <v>11300</v>
       </c>
       <c r="G52" s="3">
-        <v>10900</v>
+        <v>9200</v>
       </c>
       <c r="H52" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="I52" s="3">
-        <v>96200</v>
+        <v>11900</v>
       </c>
       <c r="J52" s="3">
+        <v>100800</v>
+      </c>
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>376400</v>
+        <v>391900</v>
       </c>
       <c r="E54" s="3">
-        <v>388700</v>
+        <v>394300</v>
       </c>
       <c r="F54" s="3">
-        <v>406900</v>
+        <v>407200</v>
       </c>
       <c r="G54" s="3">
-        <v>416600</v>
+        <v>426200</v>
       </c>
       <c r="H54" s="3">
-        <v>403000</v>
+        <v>436400</v>
       </c>
       <c r="I54" s="3">
-        <v>410000</v>
+        <v>422100</v>
       </c>
       <c r="J54" s="3">
+        <v>429500</v>
+      </c>
+      <c r="K54" s="3">
         <v>331200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>315900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>303400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>302800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>290300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>259900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1100</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
       </c>
       <c r="H57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3064,50 +3195,53 @@
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19800</v>
+        <v>35900</v>
       </c>
       <c r="E58" s="3">
-        <v>19800</v>
+        <v>20700</v>
       </c>
       <c r="F58" s="3">
-        <v>19500</v>
+        <v>20700</v>
       </c>
       <c r="G58" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="H58" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K58" s="3">
         <v>12000</v>
       </c>
-      <c r="I58" s="3">
-        <v>11700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>12000</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>36600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3117,50 +3251,53 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>159100</v>
+        <v>171900</v>
       </c>
       <c r="E59" s="3">
-        <v>158600</v>
+        <v>166600</v>
       </c>
       <c r="F59" s="3">
-        <v>158600</v>
+        <v>166100</v>
       </c>
       <c r="G59" s="3">
-        <v>167900</v>
+        <v>166100</v>
       </c>
       <c r="H59" s="3">
-        <v>162900</v>
+        <v>175900</v>
       </c>
       <c r="I59" s="3">
-        <v>187500</v>
+        <v>170700</v>
       </c>
       <c r="J59" s="3">
+        <v>196400</v>
+      </c>
+      <c r="K59" s="3">
         <v>172500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>168600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>163500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>173000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>148300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>139200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>179400</v>
+        <v>208500</v>
       </c>
       <c r="E60" s="3">
-        <v>178800</v>
+        <v>188000</v>
       </c>
       <c r="F60" s="3">
-        <v>179100</v>
+        <v>187300</v>
       </c>
       <c r="G60" s="3">
-        <v>189100</v>
+        <v>187600</v>
       </c>
       <c r="H60" s="3">
-        <v>176300</v>
+        <v>198000</v>
       </c>
       <c r="I60" s="3">
-        <v>200400</v>
+        <v>184600</v>
       </c>
       <c r="J60" s="3">
+        <v>210000</v>
+      </c>
+      <c r="K60" s="3">
         <v>185700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>183400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>165600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>174200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>153000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>176200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3223,50 +3363,53 @@
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55100</v>
+        <v>30100</v>
       </c>
       <c r="E61" s="3">
-        <v>54900</v>
+        <v>57700</v>
       </c>
       <c r="F61" s="3">
-        <v>53800</v>
+        <v>57500</v>
       </c>
       <c r="G61" s="3">
-        <v>54900</v>
+        <v>56300</v>
       </c>
       <c r="H61" s="3">
-        <v>73400</v>
+        <v>57500</v>
       </c>
       <c r="I61" s="3">
-        <v>71500</v>
+        <v>76900</v>
       </c>
       <c r="J61" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K61" s="3">
         <v>73000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>68300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>78200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>75700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>92500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>97200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3276,50 +3419,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>76300</v>
+        <v>79300</v>
       </c>
       <c r="E62" s="3">
-        <v>80500</v>
+        <v>79900</v>
       </c>
       <c r="F62" s="3">
-        <v>83400</v>
+        <v>84300</v>
       </c>
       <c r="G62" s="3">
-        <v>90900</v>
+        <v>87300</v>
       </c>
       <c r="H62" s="3">
-        <v>80700</v>
+        <v>95200</v>
       </c>
       <c r="I62" s="3">
-        <v>69800</v>
+        <v>84500</v>
       </c>
       <c r="J62" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K62" s="3">
         <v>8500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>5800</v>
       </c>
       <c r="L62" s="3">
         <v>5800</v>
       </c>
       <c r="M62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N62" s="3">
         <v>5300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>311200</v>
+        <v>318700</v>
       </c>
       <c r="E66" s="3">
-        <v>315300</v>
+        <v>326000</v>
       </c>
       <c r="F66" s="3">
-        <v>318500</v>
+        <v>330300</v>
       </c>
       <c r="G66" s="3">
-        <v>337400</v>
+        <v>333600</v>
       </c>
       <c r="H66" s="3">
-        <v>328300</v>
+        <v>353400</v>
       </c>
       <c r="I66" s="3">
-        <v>339500</v>
+        <v>343900</v>
       </c>
       <c r="J66" s="3">
+        <v>355600</v>
+      </c>
+      <c r="K66" s="3">
         <v>265000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>255000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>247600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>253000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>244300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>272800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +3945,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-26700</v>
+        <v>-23700</v>
       </c>
       <c r="E72" s="3">
-        <v>-18300</v>
+        <v>-28000</v>
       </c>
       <c r="F72" s="3">
-        <v>-3200</v>
+        <v>-19200</v>
       </c>
       <c r="G72" s="3">
-        <v>-10700</v>
+        <v>-3400</v>
       </c>
       <c r="H72" s="3">
-        <v>-16400</v>
+        <v>-11200</v>
       </c>
       <c r="I72" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="P72" s="3">
         <v>-19500</v>
       </c>
-      <c r="J72" s="3">
-        <v>-24700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-28200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-39800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-39900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>65200</v>
+        <v>73300</v>
       </c>
       <c r="E76" s="3">
-        <v>73400</v>
+        <v>68300</v>
       </c>
       <c r="F76" s="3">
-        <v>88400</v>
+        <v>76900</v>
       </c>
       <c r="G76" s="3">
-        <v>79200</v>
+        <v>92600</v>
       </c>
       <c r="H76" s="3">
-        <v>74700</v>
+        <v>83000</v>
       </c>
       <c r="I76" s="3">
-        <v>70500</v>
+        <v>78200</v>
       </c>
       <c r="J76" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K76" s="3">
         <v>66200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>60900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8400</v>
+        <v>4300</v>
       </c>
       <c r="E81" s="3">
-        <v>-15100</v>
+        <v>-8800</v>
       </c>
       <c r="F81" s="3">
-        <v>7400</v>
+        <v>-15800</v>
       </c>
       <c r="G81" s="3">
-        <v>5700</v>
+        <v>7800</v>
       </c>
       <c r="H81" s="3">
-        <v>3100</v>
+        <v>6000</v>
       </c>
       <c r="I81" s="3">
-        <v>5300</v>
+        <v>3200</v>
       </c>
       <c r="J81" s="3">
-        <v>4600</v>
+        <v>5500</v>
       </c>
       <c r="K81" s="3">
         <v>4600</v>
       </c>
       <c r="L81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M81" s="3">
         <v>6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>REDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>48700</v>
+        <v>55700</v>
       </c>
       <c r="E8" s="3">
-        <v>25100</v>
+        <v>48900</v>
       </c>
       <c r="F8" s="3">
-        <v>16600</v>
+        <v>25200</v>
       </c>
       <c r="G8" s="3">
-        <v>63300</v>
+        <v>16700</v>
       </c>
       <c r="H8" s="3">
-        <v>62500</v>
+        <v>63600</v>
       </c>
       <c r="I8" s="3">
-        <v>55800</v>
+        <v>62800</v>
       </c>
       <c r="J8" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K8" s="3">
         <v>51000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>38800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>33700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>31200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24800</v>
+        <v>23800</v>
       </c>
       <c r="E9" s="3">
-        <v>21500</v>
+        <v>24900</v>
       </c>
       <c r="F9" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="G9" s="3">
-        <v>27900</v>
+        <v>21800</v>
       </c>
       <c r="H9" s="3">
-        <v>29900</v>
+        <v>28100</v>
       </c>
       <c r="I9" s="3">
-        <v>24400</v>
+        <v>30000</v>
       </c>
       <c r="J9" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K9" s="3">
         <v>23500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23900</v>
+        <v>31900</v>
       </c>
       <c r="E10" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-5100</v>
       </c>
-      <c r="G10" s="3">
-        <v>35400</v>
-      </c>
       <c r="H10" s="3">
-        <v>32700</v>
+        <v>35500</v>
       </c>
       <c r="I10" s="3">
-        <v>31400</v>
+        <v>32800</v>
       </c>
       <c r="J10" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K10" s="3">
         <v>27500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>20800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>21200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16900</v>
-      </c>
-      <c r="S10" s="3">
-        <v>14700</v>
       </c>
       <c r="T10" s="3">
         <v>14700</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1064,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>5700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45700</v>
+        <v>54100</v>
       </c>
       <c r="E17" s="3">
-        <v>36300</v>
+        <v>45900</v>
       </c>
       <c r="F17" s="3">
-        <v>36600</v>
+        <v>36500</v>
       </c>
       <c r="G17" s="3">
-        <v>54100</v>
+        <v>36700</v>
       </c>
       <c r="H17" s="3">
-        <v>52500</v>
+        <v>54300</v>
       </c>
       <c r="I17" s="3">
-        <v>49300</v>
+        <v>52800</v>
       </c>
       <c r="J17" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K17" s="3">
         <v>42900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>59500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>27200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>25100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>26100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>3000</v>
       </c>
-      <c r="E18" s="3">
-        <v>-11200</v>
-      </c>
       <c r="F18" s="3">
-        <v>-20000</v>
+        <v>-11300</v>
       </c>
       <c r="G18" s="3">
-        <v>9200</v>
+        <v>-20100</v>
       </c>
       <c r="H18" s="3">
-        <v>10000</v>
+        <v>9300</v>
       </c>
       <c r="I18" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J18" s="3">
         <v>6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>800</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
-        <v>700</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1407,26 +1443,29 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>-10100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>11100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>13200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,167 +1473,176 @@
         <v>800</v>
       </c>
       <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1400</v>
       </c>
       <c r="J22" s="3">
         <v>1400</v>
       </c>
       <c r="K22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-20000</v>
-      </c>
       <c r="G23" s="3">
-        <v>8800</v>
+        <v>-20100</v>
       </c>
       <c r="H23" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="I23" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J23" s="3">
         <v>6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-9500</v>
-      </c>
       <c r="F26" s="3">
-        <v>-17000</v>
+        <v>-9600</v>
       </c>
       <c r="G26" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="H26" s="3">
         <v>7500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>4300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-8800</v>
-      </c>
       <c r="F27" s="3">
-        <v>-15800</v>
+        <v>-8900</v>
       </c>
       <c r="G27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="H27" s="3">
         <v>7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>4600</v>
       </c>
       <c r="L27" s="3">
         <v>4600</v>
       </c>
       <c r="M27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N27" s="3">
         <v>6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>4300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-8800</v>
-      </c>
       <c r="F33" s="3">
-        <v>-15800</v>
+        <v>-8900</v>
       </c>
       <c r="G33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="H33" s="3">
         <v>7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>4600</v>
       </c>
       <c r="L33" s="3">
         <v>4600</v>
       </c>
       <c r="M33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N33" s="3">
         <v>6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>4300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-8800</v>
-      </c>
       <c r="F35" s="3">
-        <v>-15800</v>
+        <v>-8900</v>
       </c>
       <c r="G35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="H35" s="3">
         <v>7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>4600</v>
       </c>
       <c r="L35" s="3">
         <v>4600</v>
       </c>
       <c r="M35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N35" s="3">
         <v>6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2399,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>102900</v>
+        <v>84700</v>
       </c>
       <c r="E41" s="3">
-        <v>89500</v>
+        <v>103400</v>
       </c>
       <c r="F41" s="3">
-        <v>137400</v>
+        <v>89900</v>
       </c>
       <c r="G41" s="3">
-        <v>152000</v>
+        <v>138000</v>
       </c>
       <c r="H41" s="3">
-        <v>138100</v>
+        <v>152600</v>
       </c>
       <c r="I41" s="3">
-        <v>122100</v>
+        <v>138700</v>
       </c>
       <c r="J41" s="3">
+        <v>122700</v>
+      </c>
+      <c r="K41" s="3">
         <v>192400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>187100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>142900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>132700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>156700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2390,33 +2479,33 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>30400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>14000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>28000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>14800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,44 +2527,44 @@
         <v>500</v>
       </c>
       <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>15800</v>
-      </c>
       <c r="I43" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J43" s="3">
         <v>16400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
       <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>22000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2494,41 +2589,41 @@
         <v>1200</v>
       </c>
       <c r="F44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G44" s="3">
         <v>1300</v>
       </c>
       <c r="H44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1200</v>
       </c>
       <c r="O44" s="3">
         <v>1200</v>
       </c>
       <c r="P44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2538,53 +2633,56 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27600</v>
+        <v>27400</v>
       </c>
       <c r="E45" s="3">
-        <v>39100</v>
+        <v>27700</v>
       </c>
       <c r="F45" s="3">
+        <v>39200</v>
+      </c>
+      <c r="G45" s="3">
         <v>12700</v>
       </c>
-      <c r="G45" s="3">
-        <v>11400</v>
-      </c>
       <c r="H45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I45" s="3">
         <v>14800</v>
       </c>
-      <c r="I45" s="3">
-        <v>18200</v>
-      </c>
       <c r="J45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K45" s="3">
         <v>11900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2594,53 +2692,56 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>132200</v>
+        <v>113800</v>
       </c>
       <c r="E46" s="3">
-        <v>130200</v>
+        <v>132800</v>
       </c>
       <c r="F46" s="3">
-        <v>151600</v>
+        <v>130800</v>
       </c>
       <c r="G46" s="3">
-        <v>165000</v>
+        <v>152200</v>
       </c>
       <c r="H46" s="3">
-        <v>169900</v>
+        <v>165700</v>
       </c>
       <c r="I46" s="3">
-        <v>188500</v>
+        <v>170700</v>
       </c>
       <c r="J46" s="3">
+        <v>189300</v>
+      </c>
+      <c r="K46" s="3">
         <v>205900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>203700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>195100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>185300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>187000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>169600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>143300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2650,13 +2751,16 @@
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>5000</v>
@@ -2670,8 +2774,8 @@
       <c r="H47" s="3">
         <v>5000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>5000</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2688,8 +2792,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,53 +2810,56 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>108600</v>
+        <v>114100</v>
       </c>
       <c r="E48" s="3">
-        <v>112300</v>
+        <v>109100</v>
       </c>
       <c r="F48" s="3">
-        <v>105700</v>
+        <v>112700</v>
       </c>
       <c r="G48" s="3">
-        <v>113700</v>
+        <v>106200</v>
       </c>
       <c r="H48" s="3">
-        <v>118800</v>
+        <v>114200</v>
       </c>
       <c r="I48" s="3">
-        <v>118000</v>
+        <v>119300</v>
       </c>
       <c r="J48" s="3">
+        <v>118500</v>
+      </c>
+      <c r="K48" s="3">
         <v>20100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2762,53 +2869,56 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>132400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>133600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>134100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>133800</v>
+      </c>
+      <c r="I49" s="3">
         <v>131800</v>
       </c>
-      <c r="E49" s="3">
-        <v>133000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>133500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>133200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>131200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>103700</v>
-      </c>
       <c r="J49" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K49" s="3">
         <v>102600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>100200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>97100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>94700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>94000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>100400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>97300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3046,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E52" s="3">
         <v>14300</v>
       </c>
-      <c r="E52" s="3">
-        <v>13800</v>
-      </c>
       <c r="F52" s="3">
+        <v>13900</v>
+      </c>
+      <c r="G52" s="3">
         <v>11300</v>
       </c>
-      <c r="G52" s="3">
-        <v>9200</v>
-      </c>
       <c r="H52" s="3">
-        <v>11400</v>
+        <v>9300</v>
       </c>
       <c r="I52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J52" s="3">
         <v>11900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3164,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>391900</v>
+        <v>370700</v>
       </c>
       <c r="E54" s="3">
-        <v>394300</v>
+        <v>393600</v>
       </c>
       <c r="F54" s="3">
-        <v>407200</v>
+        <v>396000</v>
       </c>
       <c r="G54" s="3">
-        <v>426200</v>
+        <v>408900</v>
       </c>
       <c r="H54" s="3">
-        <v>436400</v>
+        <v>428100</v>
       </c>
       <c r="I54" s="3">
-        <v>422100</v>
+        <v>438300</v>
       </c>
       <c r="J54" s="3">
+        <v>423900</v>
+      </c>
+      <c r="K54" s="3">
         <v>429500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>331200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>315900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>303400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>302800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>290300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>259900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3271,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1100</v>
       </c>
       <c r="H57" s="3">
         <v>1200</v>
       </c>
       <c r="I57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3198,53 +3328,56 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35900</v>
+        <v>34600</v>
       </c>
       <c r="E58" s="3">
-        <v>20700</v>
+        <v>36000</v>
       </c>
       <c r="F58" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="G58" s="3">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="H58" s="3">
-        <v>20900</v>
+        <v>20500</v>
       </c>
       <c r="I58" s="3">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="J58" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K58" s="3">
         <v>12300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>36600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3254,53 +3387,56 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171900</v>
+        <v>142200</v>
       </c>
       <c r="E59" s="3">
-        <v>166600</v>
+        <v>172600</v>
       </c>
       <c r="F59" s="3">
-        <v>166100</v>
+        <v>167300</v>
       </c>
       <c r="G59" s="3">
-        <v>166100</v>
+        <v>166800</v>
       </c>
       <c r="H59" s="3">
-        <v>175900</v>
+        <v>166800</v>
       </c>
       <c r="I59" s="3">
-        <v>170700</v>
+        <v>176700</v>
       </c>
       <c r="J59" s="3">
+        <v>171400</v>
+      </c>
+      <c r="K59" s="3">
         <v>196400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>172500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>168600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>163500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>173000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>148300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>139200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3310,53 +3446,56 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>208500</v>
+        <v>178500</v>
       </c>
       <c r="E60" s="3">
-        <v>188000</v>
+        <v>209400</v>
       </c>
       <c r="F60" s="3">
-        <v>187300</v>
+        <v>188800</v>
       </c>
       <c r="G60" s="3">
-        <v>187600</v>
+        <v>188100</v>
       </c>
       <c r="H60" s="3">
-        <v>198000</v>
+        <v>188500</v>
       </c>
       <c r="I60" s="3">
-        <v>184600</v>
+        <v>198900</v>
       </c>
       <c r="J60" s="3">
+        <v>185400</v>
+      </c>
+      <c r="K60" s="3">
         <v>210000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>185700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>183400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>165600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>174200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>153000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>176200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3366,53 +3505,56 @@
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="E61" s="3">
-        <v>57700</v>
+        <v>30200</v>
       </c>
       <c r="F61" s="3">
-        <v>57500</v>
+        <v>57900</v>
       </c>
       <c r="G61" s="3">
-        <v>56300</v>
+        <v>57800</v>
       </c>
       <c r="H61" s="3">
-        <v>57500</v>
+        <v>56600</v>
       </c>
       <c r="I61" s="3">
-        <v>76900</v>
+        <v>57800</v>
       </c>
       <c r="J61" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K61" s="3">
         <v>74900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>73000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>68300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>78200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>75700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>92500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>97200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,53 +3564,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>79300</v>
+        <v>86300</v>
       </c>
       <c r="E62" s="3">
-        <v>79900</v>
+        <v>79700</v>
       </c>
       <c r="F62" s="3">
-        <v>84300</v>
+        <v>80200</v>
       </c>
       <c r="G62" s="3">
-        <v>87300</v>
+        <v>84700</v>
       </c>
       <c r="H62" s="3">
-        <v>95200</v>
+        <v>87700</v>
       </c>
       <c r="I62" s="3">
-        <v>84500</v>
+        <v>95600</v>
       </c>
       <c r="J62" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K62" s="3">
         <v>73100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5800</v>
       </c>
       <c r="M62" s="3">
         <v>5800</v>
       </c>
       <c r="N62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O62" s="3">
         <v>5300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3800,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>318700</v>
+        <v>295100</v>
       </c>
       <c r="E66" s="3">
-        <v>326000</v>
+        <v>320000</v>
       </c>
       <c r="F66" s="3">
-        <v>330300</v>
+        <v>327400</v>
       </c>
       <c r="G66" s="3">
-        <v>333600</v>
+        <v>331700</v>
       </c>
       <c r="H66" s="3">
-        <v>353400</v>
+        <v>335100</v>
       </c>
       <c r="I66" s="3">
-        <v>343900</v>
+        <v>354900</v>
       </c>
       <c r="J66" s="3">
+        <v>345400</v>
+      </c>
+      <c r="K66" s="3">
         <v>355600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>265000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>255000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>247600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>253000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>244300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>272800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4118,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23700</v>
+        <v>-23600</v>
       </c>
       <c r="E72" s="3">
-        <v>-28000</v>
+        <v>-23800</v>
       </c>
       <c r="F72" s="3">
-        <v>-19200</v>
+        <v>-28100</v>
       </c>
       <c r="G72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-3400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11200</v>
       </c>
-      <c r="I72" s="3">
-        <v>-17100</v>
-      </c>
       <c r="J72" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-20400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4354,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73300</v>
+        <v>75600</v>
       </c>
       <c r="E76" s="3">
-        <v>68300</v>
+        <v>73600</v>
       </c>
       <c r="F76" s="3">
-        <v>76900</v>
+        <v>68600</v>
       </c>
       <c r="G76" s="3">
-        <v>92600</v>
+        <v>77200</v>
       </c>
       <c r="H76" s="3">
-        <v>83000</v>
+        <v>93000</v>
       </c>
       <c r="I76" s="3">
-        <v>78200</v>
+        <v>83300</v>
       </c>
       <c r="J76" s="3">
+        <v>78500</v>
+      </c>
+      <c r="K76" s="3">
         <v>73900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>60900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>4300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-8800</v>
-      </c>
       <c r="F81" s="3">
-        <v>-15800</v>
+        <v>-8900</v>
       </c>
       <c r="G81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="H81" s="3">
         <v>7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>4600</v>
       </c>
       <c r="L81" s="3">
         <v>4600</v>
       </c>
       <c r="M81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N81" s="3">
         <v>6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>REDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>55700</v>
+        <v>40800</v>
       </c>
       <c r="E8" s="3">
-        <v>48900</v>
+        <v>56900</v>
       </c>
       <c r="F8" s="3">
-        <v>25200</v>
+        <v>49900</v>
       </c>
       <c r="G8" s="3">
-        <v>16700</v>
+        <v>25700</v>
       </c>
       <c r="H8" s="3">
-        <v>63600</v>
+        <v>17000</v>
       </c>
       <c r="I8" s="3">
-        <v>62800</v>
+        <v>64900</v>
       </c>
       <c r="J8" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K8" s="3">
         <v>56100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>51000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>42000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>38800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>40400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>38600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>33700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>31200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>28100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23800</v>
+        <v>25300</v>
       </c>
       <c r="E9" s="3">
-        <v>24900</v>
+        <v>24300</v>
       </c>
       <c r="F9" s="3">
-        <v>21600</v>
+        <v>25400</v>
       </c>
       <c r="G9" s="3">
+        <v>22100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>22200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K9" s="3">
+        <v>24500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>23500</v>
+      </c>
+      <c r="M9" s="3">
         <v>21800</v>
       </c>
-      <c r="H9" s="3">
-        <v>28100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>30000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>24500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>23500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>21800</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>18800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31900</v>
+        <v>15500</v>
       </c>
       <c r="E10" s="3">
-        <v>24000</v>
+        <v>32500</v>
       </c>
       <c r="F10" s="3">
-        <v>3600</v>
+        <v>24500</v>
       </c>
       <c r="G10" s="3">
-        <v>-5100</v>
+        <v>3700</v>
       </c>
       <c r="H10" s="3">
-        <v>35500</v>
+        <v>-5200</v>
       </c>
       <c r="I10" s="3">
-        <v>32800</v>
+        <v>36300</v>
       </c>
       <c r="J10" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K10" s="3">
         <v>31600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>20800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>21200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>19800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16900</v>
-      </c>
-      <c r="T10" s="3">
-        <v>14700</v>
       </c>
       <c r="U10" s="3">
         <v>14700</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>5700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1093,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54100</v>
+        <v>46200</v>
       </c>
       <c r="E17" s="3">
-        <v>45900</v>
+        <v>55200</v>
       </c>
       <c r="F17" s="3">
-        <v>36500</v>
+        <v>46900</v>
       </c>
       <c r="G17" s="3">
-        <v>36700</v>
+        <v>37300</v>
       </c>
       <c r="H17" s="3">
-        <v>54300</v>
+        <v>37500</v>
       </c>
       <c r="I17" s="3">
-        <v>52800</v>
+        <v>55500</v>
       </c>
       <c r="J17" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K17" s="3">
         <v>49500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>33900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>59500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>27200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>25100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-11300</v>
-      </c>
       <c r="G18" s="3">
-        <v>-20100</v>
+        <v>-11500</v>
       </c>
       <c r="H18" s="3">
-        <v>9300</v>
+        <v>-20500</v>
       </c>
       <c r="I18" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="J18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K18" s="3">
         <v>6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
-        <v>3000</v>
-      </c>
       <c r="F20" s="3">
-        <v>900</v>
+        <v>3100</v>
       </c>
       <c r="G20" s="3">
         <v>1000</v>
       </c>
       <c r="H20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1446,31 +1483,34 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>11100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>13200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
@@ -1479,13 +1519,13 @@
         <v>900</v>
       </c>
       <c r="G22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
       </c>
       <c r="I22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="3">
         <v>1400</v>
@@ -1494,155 +1534,164 @@
         <v>1400</v>
       </c>
       <c r="L22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
-        <v>5100</v>
-      </c>
       <c r="F23" s="3">
-        <v>-11200</v>
+        <v>5200</v>
       </c>
       <c r="G23" s="3">
-        <v>-20100</v>
+        <v>-11500</v>
       </c>
       <c r="H23" s="3">
-        <v>8900</v>
+        <v>-20500</v>
       </c>
       <c r="I23" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="J23" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K23" s="3">
         <v>6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-3000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
-        <v>4500</v>
-      </c>
       <c r="F26" s="3">
-        <v>-9600</v>
+        <v>4600</v>
       </c>
       <c r="G26" s="3">
-        <v>-17100</v>
+        <v>-9800</v>
       </c>
       <c r="H26" s="3">
-        <v>7500</v>
+        <v>-17400</v>
       </c>
       <c r="I26" s="3">
-        <v>5700</v>
+        <v>7700</v>
       </c>
       <c r="J26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>4300</v>
-      </c>
       <c r="F27" s="3">
-        <v>-8900</v>
+        <v>4400</v>
       </c>
       <c r="G27" s="3">
-        <v>-15900</v>
+        <v>-9100</v>
       </c>
       <c r="H27" s="3">
-        <v>7800</v>
+        <v>-16200</v>
       </c>
       <c r="I27" s="3">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="J27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K27" s="3">
         <v>3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>4600</v>
       </c>
       <c r="M27" s="3">
         <v>4600</v>
       </c>
       <c r="N27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O27" s="3">
         <v>6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3000</v>
-      </c>
       <c r="F32" s="3">
-        <v>-900</v>
+        <v>-3100</v>
       </c>
       <c r="G32" s="3">
         <v>-1000</v>
       </c>
       <c r="H32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>4300</v>
-      </c>
       <c r="F33" s="3">
-        <v>-8900</v>
+        <v>4400</v>
       </c>
       <c r="G33" s="3">
-        <v>-15900</v>
+        <v>-9100</v>
       </c>
       <c r="H33" s="3">
-        <v>7800</v>
+        <v>-16200</v>
       </c>
       <c r="I33" s="3">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="J33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K33" s="3">
         <v>3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>4600</v>
       </c>
       <c r="M33" s="3">
         <v>4600</v>
       </c>
       <c r="N33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O33" s="3">
         <v>6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>4300</v>
-      </c>
       <c r="F35" s="3">
-        <v>-8900</v>
+        <v>4400</v>
       </c>
       <c r="G35" s="3">
-        <v>-15900</v>
+        <v>-9100</v>
       </c>
       <c r="H35" s="3">
-        <v>7800</v>
+        <v>-16200</v>
       </c>
       <c r="I35" s="3">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="J35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K35" s="3">
         <v>3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>4600</v>
       </c>
       <c r="M35" s="3">
         <v>4600</v>
       </c>
       <c r="N35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O35" s="3">
         <v>6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,56 +2486,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>84700</v>
+        <v>105300</v>
       </c>
       <c r="E41" s="3">
-        <v>103400</v>
+        <v>86500</v>
       </c>
       <c r="F41" s="3">
-        <v>89900</v>
+        <v>105600</v>
       </c>
       <c r="G41" s="3">
-        <v>138000</v>
+        <v>91800</v>
       </c>
       <c r="H41" s="3">
-        <v>152600</v>
+        <v>140900</v>
       </c>
       <c r="I41" s="3">
-        <v>138700</v>
+        <v>155900</v>
       </c>
       <c r="J41" s="3">
+        <v>141600</v>
+      </c>
+      <c r="K41" s="3">
         <v>122700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>192400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>187100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>142900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>120100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>132700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>156700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>93900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2482,33 +2572,33 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>30600</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>28000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>14800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2518,56 +2608,59 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>500</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>15900</v>
-      </c>
       <c r="J43" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K43" s="3">
         <v>16400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>400</v>
+      </c>
+      <c r="N43" s="3">
         <v>22000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>22400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2577,13 +2670,16 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E44" s="3">
         <v>1200</v>
@@ -2592,41 +2688,41 @@
         <v>1200</v>
       </c>
       <c r="G44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H44" s="3">
         <v>1300</v>
       </c>
       <c r="I44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1200</v>
       </c>
       <c r="P44" s="3">
         <v>1200</v>
       </c>
       <c r="Q44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R44" s="3">
         <v>1000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2636,56 +2732,59 @@
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27400</v>
+        <v>17900</v>
       </c>
       <c r="E45" s="3">
-        <v>27700</v>
+        <v>27900</v>
       </c>
       <c r="F45" s="3">
-        <v>39200</v>
+        <v>28300</v>
       </c>
       <c r="G45" s="3">
-        <v>12700</v>
+        <v>40000</v>
       </c>
       <c r="H45" s="3">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="I45" s="3">
-        <v>14800</v>
+        <v>11700</v>
       </c>
       <c r="J45" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K45" s="3">
         <v>18300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2695,56 +2794,59 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>113800</v>
+        <v>125800</v>
       </c>
       <c r="E46" s="3">
-        <v>132800</v>
+        <v>116200</v>
       </c>
       <c r="F46" s="3">
-        <v>130800</v>
+        <v>135600</v>
       </c>
       <c r="G46" s="3">
-        <v>152200</v>
+        <v>133500</v>
       </c>
       <c r="H46" s="3">
-        <v>165700</v>
+        <v>155400</v>
       </c>
       <c r="I46" s="3">
-        <v>170700</v>
+        <v>169200</v>
       </c>
       <c r="J46" s="3">
+        <v>174300</v>
+      </c>
+      <c r="K46" s="3">
         <v>189300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>205900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>203700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>195100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>185300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>187000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>169600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>143300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2754,31 +2856,34 @@
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>5000</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G47" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H47" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I47" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+        <v>5100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2795,8 +2900,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2813,56 +2918,59 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>114100</v>
+        <v>113100</v>
       </c>
       <c r="E48" s="3">
-        <v>109100</v>
+        <v>116500</v>
       </c>
       <c r="F48" s="3">
-        <v>112700</v>
+        <v>111400</v>
       </c>
       <c r="G48" s="3">
-        <v>106200</v>
+        <v>115100</v>
       </c>
       <c r="H48" s="3">
-        <v>114200</v>
+        <v>108400</v>
       </c>
       <c r="I48" s="3">
-        <v>119300</v>
+        <v>116600</v>
       </c>
       <c r="J48" s="3">
+        <v>121800</v>
+      </c>
+      <c r="K48" s="3">
         <v>118500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2872,56 +2980,59 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>129100</v>
+        <v>131400</v>
       </c>
       <c r="E49" s="3">
-        <v>132400</v>
+        <v>131800</v>
       </c>
       <c r="F49" s="3">
-        <v>133600</v>
+        <v>135200</v>
       </c>
       <c r="G49" s="3">
-        <v>134100</v>
+        <v>136400</v>
       </c>
       <c r="H49" s="3">
-        <v>133800</v>
+        <v>137000</v>
       </c>
       <c r="I49" s="3">
-        <v>131800</v>
+        <v>136600</v>
       </c>
       <c r="J49" s="3">
+        <v>134600</v>
+      </c>
+      <c r="K49" s="3">
         <v>104200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>102600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>100200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>97100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>94700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>94000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>100400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>97300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,56 +3166,59 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13800</v>
+        <v>15200</v>
       </c>
       <c r="E52" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="F52" s="3">
-        <v>13900</v>
+        <v>14600</v>
       </c>
       <c r="G52" s="3">
-        <v>11300</v>
+        <v>14200</v>
       </c>
       <c r="H52" s="3">
-        <v>9300</v>
+        <v>11600</v>
       </c>
       <c r="I52" s="3">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="J52" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K52" s="3">
         <v>11900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,56 +3290,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>370700</v>
+        <v>385600</v>
       </c>
       <c r="E54" s="3">
-        <v>393600</v>
+        <v>378500</v>
       </c>
       <c r="F54" s="3">
-        <v>396000</v>
+        <v>401900</v>
       </c>
       <c r="G54" s="3">
-        <v>408900</v>
+        <v>404400</v>
       </c>
       <c r="H54" s="3">
-        <v>428100</v>
+        <v>417600</v>
       </c>
       <c r="I54" s="3">
-        <v>438300</v>
+        <v>437100</v>
       </c>
       <c r="J54" s="3">
+        <v>447500</v>
+      </c>
+      <c r="K54" s="3">
         <v>423900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>429500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>331200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>315900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>303400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>302800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>290300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>259900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,56 +3402,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
-        <v>700</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1200</v>
       </c>
       <c r="I57" s="3">
         <v>1200</v>
       </c>
       <c r="J57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3331,56 +3462,59 @@
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34600</v>
+        <v>3300</v>
       </c>
       <c r="E58" s="3">
-        <v>36000</v>
+        <v>35400</v>
       </c>
       <c r="F58" s="3">
-        <v>20800</v>
+        <v>36800</v>
       </c>
       <c r="G58" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="H58" s="3">
-        <v>20500</v>
+        <v>21300</v>
       </c>
       <c r="I58" s="3">
-        <v>21000</v>
+        <v>20900</v>
       </c>
       <c r="J58" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K58" s="3">
         <v>12600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>13200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>36600</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3390,56 +3524,59 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>142200</v>
+        <v>160700</v>
       </c>
       <c r="E59" s="3">
-        <v>172600</v>
+        <v>145200</v>
       </c>
       <c r="F59" s="3">
-        <v>167300</v>
+        <v>176300</v>
       </c>
       <c r="G59" s="3">
-        <v>166800</v>
+        <v>170900</v>
       </c>
       <c r="H59" s="3">
-        <v>166800</v>
+        <v>170300</v>
       </c>
       <c r="I59" s="3">
-        <v>176700</v>
+        <v>170400</v>
       </c>
       <c r="J59" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K59" s="3">
         <v>171400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>196400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>172500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>168600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>163500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>173000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>148300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>139200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3449,56 +3586,59 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>178500</v>
+        <v>166100</v>
       </c>
       <c r="E60" s="3">
-        <v>209400</v>
+        <v>182300</v>
       </c>
       <c r="F60" s="3">
-        <v>188800</v>
+        <v>213900</v>
       </c>
       <c r="G60" s="3">
-        <v>188100</v>
+        <v>192800</v>
       </c>
       <c r="H60" s="3">
-        <v>188500</v>
+        <v>192100</v>
       </c>
       <c r="I60" s="3">
-        <v>198900</v>
+        <v>192400</v>
       </c>
       <c r="J60" s="3">
+        <v>203100</v>
+      </c>
+      <c r="K60" s="3">
         <v>185400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>210000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>185700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>183400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>165600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>174200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>153000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>176200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3508,56 +3648,59 @@
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29200</v>
+        <v>60700</v>
       </c>
       <c r="E61" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="F61" s="3">
-        <v>57900</v>
+        <v>30900</v>
       </c>
       <c r="G61" s="3">
-        <v>57800</v>
+        <v>59100</v>
       </c>
       <c r="H61" s="3">
-        <v>56600</v>
+        <v>59000</v>
       </c>
       <c r="I61" s="3">
-        <v>57800</v>
+        <v>57700</v>
       </c>
       <c r="J61" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K61" s="3">
         <v>77200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>74900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>73000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>68300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>78200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>75700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>92500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>97200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3567,56 +3710,59 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>86300</v>
+        <v>84300</v>
       </c>
       <c r="E62" s="3">
-        <v>79700</v>
+        <v>88200</v>
       </c>
       <c r="F62" s="3">
-        <v>80200</v>
+        <v>81400</v>
       </c>
       <c r="G62" s="3">
-        <v>84700</v>
+        <v>81900</v>
       </c>
       <c r="H62" s="3">
-        <v>87700</v>
+        <v>86500</v>
       </c>
       <c r="I62" s="3">
-        <v>95600</v>
+        <v>89500</v>
       </c>
       <c r="J62" s="3">
+        <v>97700</v>
+      </c>
+      <c r="K62" s="3">
         <v>84900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>73100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>5800</v>
       </c>
       <c r="N62" s="3">
         <v>5800</v>
       </c>
       <c r="O62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P62" s="3">
         <v>5300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,56 +3958,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>295100</v>
+        <v>312100</v>
       </c>
       <c r="E66" s="3">
-        <v>320000</v>
+        <v>301300</v>
       </c>
       <c r="F66" s="3">
-        <v>327400</v>
+        <v>326800</v>
       </c>
       <c r="G66" s="3">
-        <v>331700</v>
+        <v>334300</v>
       </c>
       <c r="H66" s="3">
-        <v>335100</v>
+        <v>338700</v>
       </c>
       <c r="I66" s="3">
-        <v>354900</v>
+        <v>342100</v>
       </c>
       <c r="J66" s="3">
+        <v>362400</v>
+      </c>
+      <c r="K66" s="3">
         <v>345400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>355600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>265000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>255000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>247600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>253000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>244300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>272800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,56 +4292,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23600</v>
+        <v>-28000</v>
       </c>
       <c r="E72" s="3">
-        <v>-23800</v>
+        <v>-24100</v>
       </c>
       <c r="F72" s="3">
-        <v>-28100</v>
+        <v>-24400</v>
       </c>
       <c r="G72" s="3">
-        <v>-19300</v>
+        <v>-28700</v>
       </c>
       <c r="H72" s="3">
-        <v>-3400</v>
+        <v>-19700</v>
       </c>
       <c r="I72" s="3">
-        <v>-11200</v>
+        <v>-3500</v>
       </c>
       <c r="J72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-17200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,56 +4540,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>75600</v>
+        <v>73500</v>
       </c>
       <c r="E76" s="3">
-        <v>73600</v>
+        <v>77200</v>
       </c>
       <c r="F76" s="3">
-        <v>68600</v>
+        <v>75100</v>
       </c>
       <c r="G76" s="3">
-        <v>77200</v>
+        <v>70100</v>
       </c>
       <c r="H76" s="3">
-        <v>93000</v>
+        <v>78800</v>
       </c>
       <c r="I76" s="3">
-        <v>83300</v>
+        <v>95000</v>
       </c>
       <c r="J76" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K76" s="3">
         <v>78500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>60900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-12900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>4300</v>
-      </c>
       <c r="F81" s="3">
-        <v>-8900</v>
+        <v>4400</v>
       </c>
       <c r="G81" s="3">
-        <v>-15900</v>
+        <v>-9100</v>
       </c>
       <c r="H81" s="3">
-        <v>7800</v>
+        <v>-16200</v>
       </c>
       <c r="I81" s="3">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="J81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K81" s="3">
         <v>3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>4600</v>
       </c>
       <c r="M81" s="3">
         <v>4600</v>
       </c>
       <c r="N81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O81" s="3">
         <v>6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40800</v>
+        <v>40300</v>
       </c>
       <c r="E8" s="3">
-        <v>56900</v>
+        <v>56100</v>
       </c>
       <c r="F8" s="3">
-        <v>49900</v>
+        <v>49300</v>
       </c>
       <c r="G8" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="H8" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="I8" s="3">
-        <v>64900</v>
+        <v>64100</v>
       </c>
       <c r="J8" s="3">
-        <v>64100</v>
+        <v>63300</v>
       </c>
       <c r="K8" s="3">
         <v>56100</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="E9" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="F9" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="G9" s="3">
-        <v>22100</v>
+        <v>21800</v>
       </c>
       <c r="H9" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="I9" s="3">
-        <v>28600</v>
+        <v>28300</v>
       </c>
       <c r="J9" s="3">
-        <v>30600</v>
+        <v>30200</v>
       </c>
       <c r="K9" s="3">
         <v>24500</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="E10" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="F10" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="G10" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H10" s="3">
         <v>-5200</v>
       </c>
       <c r="I10" s="3">
-        <v>36300</v>
+        <v>35800</v>
       </c>
       <c r="J10" s="3">
-        <v>33500</v>
+        <v>33100</v>
       </c>
       <c r="K10" s="3">
         <v>31600</v>
@@ -1096,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46200</v>
+        <v>45600</v>
       </c>
       <c r="E17" s="3">
-        <v>55200</v>
+        <v>54500</v>
       </c>
       <c r="F17" s="3">
-        <v>46900</v>
+        <v>46300</v>
       </c>
       <c r="G17" s="3">
-        <v>37300</v>
+        <v>36800</v>
       </c>
       <c r="H17" s="3">
-        <v>37500</v>
+        <v>37000</v>
       </c>
       <c r="I17" s="3">
-        <v>55500</v>
+        <v>54700</v>
       </c>
       <c r="J17" s="3">
-        <v>53900</v>
+        <v>53200</v>
       </c>
       <c r="K17" s="3">
         <v>49500</v>
@@ -1309,16 +1309,16 @@
         <v>3000</v>
       </c>
       <c r="G18" s="3">
-        <v>-11500</v>
+        <v>-11400</v>
       </c>
       <c r="H18" s="3">
-        <v>-20500</v>
+        <v>-20200</v>
       </c>
       <c r="I18" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="J18" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="K18" s="3">
         <v>6600</v>
@@ -1392,13 +1392,13 @@
         <v>1400</v>
       </c>
       <c r="F20" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G20" s="3">
         <v>1000</v>
       </c>
       <c r="H20" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="3">
         <v>800</v>
@@ -1510,7 +1510,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
@@ -1522,10 +1522,10 @@
         <v>900</v>
       </c>
       <c r="H22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="3">
         <v>1100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1200</v>
       </c>
       <c r="J22" s="3">
         <v>1400</v>
@@ -1572,7 +1572,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="E23" s="3">
         <v>2200</v>
@@ -1581,16 +1581,16 @@
         <v>5200</v>
       </c>
       <c r="G23" s="3">
-        <v>-11500</v>
+        <v>-11300</v>
       </c>
       <c r="H23" s="3">
-        <v>-20500</v>
+        <v>-20200</v>
       </c>
       <c r="I23" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="J23" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="K23" s="3">
         <v>6300</v>
@@ -1646,13 +1646,13 @@
         <v>-1700</v>
       </c>
       <c r="H24" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="I24" s="3">
         <v>1400</v>
       </c>
       <c r="J24" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K24" s="3">
         <v>2900</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="E26" s="3">
         <v>500</v>
       </c>
       <c r="F26" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G26" s="3">
-        <v>-9800</v>
+        <v>-9600</v>
       </c>
       <c r="H26" s="3">
-        <v>-17400</v>
+        <v>-17200</v>
       </c>
       <c r="I26" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="J26" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="K26" s="3">
         <v>3400</v>
@@ -1826,16 +1826,16 @@
         <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G27" s="3">
-        <v>-9100</v>
+        <v>-8900</v>
       </c>
       <c r="H27" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="I27" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="J27" s="3">
         <v>6100</v>
@@ -2136,13 +2136,13 @@
         <v>-1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="G32" s="3">
         <v>-1000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="I32" s="3">
         <v>-800</v>
@@ -2198,16 +2198,16 @@
         <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G33" s="3">
-        <v>-9100</v>
+        <v>-8900</v>
       </c>
       <c r="H33" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="I33" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="J33" s="3">
         <v>6100</v>
@@ -2322,16 +2322,16 @@
         <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G35" s="3">
-        <v>-9100</v>
+        <v>-8900</v>
       </c>
       <c r="H35" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="I35" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="J35" s="3">
         <v>6100</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>105300</v>
+        <v>104000</v>
       </c>
       <c r="E41" s="3">
-        <v>86500</v>
+        <v>85400</v>
       </c>
       <c r="F41" s="3">
-        <v>105600</v>
+        <v>104200</v>
       </c>
       <c r="G41" s="3">
-        <v>91800</v>
+        <v>90600</v>
       </c>
       <c r="H41" s="3">
-        <v>140900</v>
+        <v>139100</v>
       </c>
       <c r="I41" s="3">
-        <v>155900</v>
+        <v>153800</v>
       </c>
       <c r="J41" s="3">
-        <v>141600</v>
+        <v>139800</v>
       </c>
       <c r="K41" s="3">
         <v>122700</v>
@@ -2635,7 +2635,7 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="K43" s="3">
         <v>16400</v>
@@ -2694,7 +2694,7 @@
         <v>1300</v>
       </c>
       <c r="I44" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J44" s="3">
         <v>1200</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="E45" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F45" s="3">
         <v>27900</v>
       </c>
-      <c r="F45" s="3">
-        <v>28300</v>
-      </c>
       <c r="G45" s="3">
-        <v>40000</v>
+        <v>39500</v>
       </c>
       <c r="H45" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="I45" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="J45" s="3">
-        <v>15100</v>
+        <v>14900</v>
       </c>
       <c r="K45" s="3">
         <v>18300</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>125800</v>
+        <v>124200</v>
       </c>
       <c r="E46" s="3">
-        <v>116200</v>
+        <v>114600</v>
       </c>
       <c r="F46" s="3">
-        <v>135600</v>
+        <v>133800</v>
       </c>
       <c r="G46" s="3">
-        <v>133500</v>
+        <v>131800</v>
       </c>
       <c r="H46" s="3">
-        <v>155400</v>
+        <v>153400</v>
       </c>
       <c r="I46" s="3">
-        <v>169200</v>
+        <v>167000</v>
       </c>
       <c r="J46" s="3">
-        <v>174300</v>
+        <v>172000</v>
       </c>
       <c r="K46" s="3">
         <v>189300</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>113100</v>
+        <v>111600</v>
       </c>
       <c r="E48" s="3">
-        <v>116500</v>
+        <v>115000</v>
       </c>
       <c r="F48" s="3">
-        <v>111400</v>
+        <v>110000</v>
       </c>
       <c r="G48" s="3">
+        <v>113600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>107000</v>
+      </c>
+      <c r="I48" s="3">
         <v>115100</v>
       </c>
-      <c r="H48" s="3">
-        <v>108400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>116600</v>
-      </c>
       <c r="J48" s="3">
-        <v>121800</v>
+        <v>120200</v>
       </c>
       <c r="K48" s="3">
         <v>118500</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>131400</v>
+        <v>129700</v>
       </c>
       <c r="E49" s="3">
-        <v>131800</v>
+        <v>130100</v>
       </c>
       <c r="F49" s="3">
+        <v>133400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>134600</v>
+      </c>
+      <c r="H49" s="3">
         <v>135200</v>
       </c>
-      <c r="G49" s="3">
-        <v>136400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>137000</v>
-      </c>
       <c r="I49" s="3">
-        <v>136600</v>
+        <v>134800</v>
       </c>
       <c r="J49" s="3">
-        <v>134600</v>
+        <v>132800</v>
       </c>
       <c r="K49" s="3">
         <v>104200</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="E52" s="3">
-        <v>14100</v>
+        <v>13900</v>
       </c>
       <c r="F52" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="G52" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="H52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J52" s="3">
         <v>11600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>9500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>11700</v>
       </c>
       <c r="K52" s="3">
         <v>11900</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>385600</v>
+        <v>380500</v>
       </c>
       <c r="E54" s="3">
-        <v>378500</v>
+        <v>373600</v>
       </c>
       <c r="F54" s="3">
-        <v>401900</v>
+        <v>396700</v>
       </c>
       <c r="G54" s="3">
-        <v>404400</v>
+        <v>399100</v>
       </c>
       <c r="H54" s="3">
-        <v>417600</v>
+        <v>412100</v>
       </c>
       <c r="I54" s="3">
-        <v>437100</v>
+        <v>431400</v>
       </c>
       <c r="J54" s="3">
-        <v>447500</v>
+        <v>441700</v>
       </c>
       <c r="K54" s="3">
         <v>423900</v>
@@ -3474,22 +3474,22 @@
         <v>3300</v>
       </c>
       <c r="E58" s="3">
-        <v>35400</v>
+        <v>34900</v>
       </c>
       <c r="F58" s="3">
-        <v>36800</v>
+        <v>36300</v>
       </c>
       <c r="G58" s="3">
+        <v>20900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J58" s="3">
         <v>21200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>20900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>21500</v>
       </c>
       <c r="K58" s="3">
         <v>12600</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>160700</v>
+        <v>158600</v>
       </c>
       <c r="E59" s="3">
-        <v>145200</v>
+        <v>143300</v>
       </c>
       <c r="F59" s="3">
-        <v>176300</v>
+        <v>174000</v>
       </c>
       <c r="G59" s="3">
-        <v>170900</v>
+        <v>168600</v>
       </c>
       <c r="H59" s="3">
-        <v>170300</v>
+        <v>168100</v>
       </c>
       <c r="I59" s="3">
-        <v>170400</v>
+        <v>168100</v>
       </c>
       <c r="J59" s="3">
-        <v>180400</v>
+        <v>178000</v>
       </c>
       <c r="K59" s="3">
         <v>171400</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>166100</v>
+        <v>164000</v>
       </c>
       <c r="E60" s="3">
-        <v>182300</v>
+        <v>179900</v>
       </c>
       <c r="F60" s="3">
-        <v>213900</v>
+        <v>211100</v>
       </c>
       <c r="G60" s="3">
-        <v>192800</v>
+        <v>190200</v>
       </c>
       <c r="H60" s="3">
-        <v>192100</v>
+        <v>189600</v>
       </c>
       <c r="I60" s="3">
-        <v>192400</v>
+        <v>189900</v>
       </c>
       <c r="J60" s="3">
-        <v>203100</v>
+        <v>200400</v>
       </c>
       <c r="K60" s="3">
         <v>185400</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>60700</v>
+        <v>59900</v>
       </c>
       <c r="E61" s="3">
-        <v>29900</v>
+        <v>29500</v>
       </c>
       <c r="F61" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="G61" s="3">
-        <v>59100</v>
+        <v>58400</v>
       </c>
       <c r="H61" s="3">
-        <v>59000</v>
+        <v>58200</v>
       </c>
       <c r="I61" s="3">
-        <v>57700</v>
+        <v>57000</v>
       </c>
       <c r="J61" s="3">
-        <v>59000</v>
+        <v>58200</v>
       </c>
       <c r="K61" s="3">
         <v>77200</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>84300</v>
+        <v>83200</v>
       </c>
       <c r="E62" s="3">
-        <v>88200</v>
+        <v>87000</v>
       </c>
       <c r="F62" s="3">
-        <v>81400</v>
+        <v>80300</v>
       </c>
       <c r="G62" s="3">
-        <v>81900</v>
+        <v>80900</v>
       </c>
       <c r="H62" s="3">
-        <v>86500</v>
+        <v>85300</v>
       </c>
       <c r="I62" s="3">
-        <v>89500</v>
+        <v>88400</v>
       </c>
       <c r="J62" s="3">
-        <v>97700</v>
+        <v>96400</v>
       </c>
       <c r="K62" s="3">
         <v>84900</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>312100</v>
+        <v>308000</v>
       </c>
       <c r="E66" s="3">
-        <v>301300</v>
+        <v>297400</v>
       </c>
       <c r="F66" s="3">
-        <v>326800</v>
+        <v>322500</v>
       </c>
       <c r="G66" s="3">
+        <v>330000</v>
+      </c>
+      <c r="H66" s="3">
         <v>334300</v>
       </c>
-      <c r="H66" s="3">
-        <v>338700</v>
-      </c>
       <c r="I66" s="3">
-        <v>342100</v>
+        <v>337700</v>
       </c>
       <c r="J66" s="3">
-        <v>362400</v>
+        <v>357700</v>
       </c>
       <c r="K66" s="3">
         <v>345400</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28000</v>
+        <v>-27600</v>
       </c>
       <c r="E72" s="3">
-        <v>-24100</v>
+        <v>-23800</v>
       </c>
       <c r="F72" s="3">
-        <v>-24400</v>
+        <v>-24000</v>
       </c>
       <c r="G72" s="3">
-        <v>-28700</v>
+        <v>-28300</v>
       </c>
       <c r="H72" s="3">
-        <v>-19700</v>
+        <v>-19400</v>
       </c>
       <c r="I72" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="J72" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="K72" s="3">
         <v>-17200</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73500</v>
+        <v>72500</v>
       </c>
       <c r="E76" s="3">
-        <v>77200</v>
+        <v>76200</v>
       </c>
       <c r="F76" s="3">
-        <v>75100</v>
+        <v>74200</v>
       </c>
       <c r="G76" s="3">
-        <v>70100</v>
+        <v>69200</v>
       </c>
       <c r="H76" s="3">
-        <v>78800</v>
+        <v>77800</v>
       </c>
       <c r="I76" s="3">
-        <v>95000</v>
+        <v>93800</v>
       </c>
       <c r="J76" s="3">
-        <v>85100</v>
+        <v>84000</v>
       </c>
       <c r="K76" s="3">
         <v>78500</v>
@@ -4746,16 +4746,16 @@
         <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G81" s="3">
-        <v>-9100</v>
+        <v>-8900</v>
       </c>
       <c r="H81" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="I81" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="J81" s="3">
         <v>6100</v>

--- a/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40300</v>
+        <v>40900</v>
       </c>
       <c r="E8" s="3">
-        <v>56100</v>
+        <v>57100</v>
       </c>
       <c r="F8" s="3">
-        <v>49300</v>
+        <v>50100</v>
       </c>
       <c r="G8" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="H8" s="3">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="I8" s="3">
-        <v>64100</v>
+        <v>65200</v>
       </c>
       <c r="J8" s="3">
-        <v>63300</v>
+        <v>64400</v>
       </c>
       <c r="K8" s="3">
         <v>56100</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25000</v>
+        <v>25400</v>
       </c>
       <c r="E9" s="3">
-        <v>24000</v>
+        <v>24400</v>
       </c>
       <c r="F9" s="3">
-        <v>25100</v>
+        <v>25500</v>
       </c>
       <c r="G9" s="3">
-        <v>21800</v>
+        <v>22200</v>
       </c>
       <c r="H9" s="3">
-        <v>22000</v>
+        <v>22300</v>
       </c>
       <c r="I9" s="3">
-        <v>28300</v>
+        <v>28700</v>
       </c>
       <c r="J9" s="3">
-        <v>30200</v>
+        <v>30700</v>
       </c>
       <c r="K9" s="3">
         <v>24500</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="E10" s="3">
-        <v>32100</v>
+        <v>32700</v>
       </c>
       <c r="F10" s="3">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="G10" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H10" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="I10" s="3">
-        <v>35800</v>
+        <v>36400</v>
       </c>
       <c r="J10" s="3">
-        <v>33100</v>
+        <v>33600</v>
       </c>
       <c r="K10" s="3">
         <v>31600</v>
@@ -1096,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45600</v>
+        <v>46400</v>
       </c>
       <c r="E17" s="3">
-        <v>54500</v>
+        <v>55400</v>
       </c>
       <c r="F17" s="3">
-        <v>46300</v>
+        <v>47100</v>
       </c>
       <c r="G17" s="3">
-        <v>36800</v>
+        <v>37400</v>
       </c>
       <c r="H17" s="3">
-        <v>37000</v>
+        <v>37600</v>
       </c>
       <c r="I17" s="3">
-        <v>54700</v>
+        <v>55700</v>
       </c>
       <c r="J17" s="3">
-        <v>53200</v>
+        <v>54100</v>
       </c>
       <c r="K17" s="3">
         <v>49500</v>
@@ -1300,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="E18" s="3">
         <v>1600</v>
@@ -1309,16 +1309,16 @@
         <v>3000</v>
       </c>
       <c r="G18" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="H18" s="3">
-        <v>-20200</v>
+        <v>-20600</v>
       </c>
       <c r="I18" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="J18" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="K18" s="3">
         <v>6600</v>
@@ -1389,16 +1389,16 @@
         <v>2100</v>
       </c>
       <c r="E20" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G20" s="3">
         <v>1000</v>
       </c>
       <c r="H20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I20" s="3">
         <v>800</v>
@@ -1510,7 +1510,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
@@ -1522,10 +1522,10 @@
         <v>900</v>
       </c>
       <c r="H22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="3">
         <v>1400</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="E23" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F23" s="3">
         <v>5200</v>
       </c>
       <c r="G23" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="H23" s="3">
-        <v>-20200</v>
+        <v>-20600</v>
       </c>
       <c r="I23" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="J23" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="K23" s="3">
         <v>6300</v>
@@ -1646,13 +1646,13 @@
         <v>-1700</v>
       </c>
       <c r="H24" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I24" s="3">
         <v>1400</v>
       </c>
       <c r="J24" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K24" s="3">
         <v>2900</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="E26" s="3">
         <v>500</v>
       </c>
       <c r="F26" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G26" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="H26" s="3">
-        <v>-17200</v>
+        <v>-17500</v>
       </c>
       <c r="I26" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="J26" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K26" s="3">
         <v>3400</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="E27" s="3">
         <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G27" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="H27" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="I27" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J27" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K27" s="3">
         <v>3200</v>
@@ -2133,16 +2133,16 @@
         <v>-2100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F32" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="G32" s="3">
         <v>-1000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I32" s="3">
         <v>-800</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="E33" s="3">
         <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G33" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="H33" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="I33" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J33" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K33" s="3">
         <v>3200</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="E35" s="3">
         <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G35" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="H35" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="I35" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J35" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K35" s="3">
         <v>3200</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>104000</v>
+        <v>105700</v>
       </c>
       <c r="E41" s="3">
-        <v>85400</v>
+        <v>86800</v>
       </c>
       <c r="F41" s="3">
-        <v>104200</v>
+        <v>105900</v>
       </c>
       <c r="G41" s="3">
-        <v>90600</v>
+        <v>92200</v>
       </c>
       <c r="H41" s="3">
-        <v>139100</v>
+        <v>141400</v>
       </c>
       <c r="I41" s="3">
-        <v>153800</v>
+        <v>156400</v>
       </c>
       <c r="J41" s="3">
-        <v>139800</v>
+        <v>142100</v>
       </c>
       <c r="K41" s="3">
         <v>122700</v>
@@ -2635,7 +2635,7 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="K43" s="3">
         <v>16400</v>
@@ -2694,10 +2694,10 @@
         <v>1300</v>
       </c>
       <c r="I44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J44" s="3">
         <v>1300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1200</v>
       </c>
       <c r="K44" s="3">
         <v>1400</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="E45" s="3">
-        <v>27600</v>
+        <v>28000</v>
       </c>
       <c r="F45" s="3">
-        <v>27900</v>
+        <v>28400</v>
       </c>
       <c r="G45" s="3">
-        <v>39500</v>
+        <v>40200</v>
       </c>
       <c r="H45" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="I45" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="J45" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="K45" s="3">
         <v>18300</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>124200</v>
+        <v>126300</v>
       </c>
       <c r="E46" s="3">
-        <v>114600</v>
+        <v>116600</v>
       </c>
       <c r="F46" s="3">
-        <v>133800</v>
+        <v>136100</v>
       </c>
       <c r="G46" s="3">
-        <v>131800</v>
+        <v>134000</v>
       </c>
       <c r="H46" s="3">
-        <v>153400</v>
+        <v>156000</v>
       </c>
       <c r="I46" s="3">
-        <v>167000</v>
+        <v>169800</v>
       </c>
       <c r="J46" s="3">
-        <v>172000</v>
+        <v>174900</v>
       </c>
       <c r="K46" s="3">
         <v>189300</v>
@@ -2871,19 +2871,19 @@
         <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G47" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H47" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I47" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J47" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>111600</v>
+        <v>113500</v>
       </c>
       <c r="E48" s="3">
-        <v>115000</v>
+        <v>116900</v>
       </c>
       <c r="F48" s="3">
-        <v>110000</v>
+        <v>111800</v>
       </c>
       <c r="G48" s="3">
-        <v>113600</v>
+        <v>115500</v>
       </c>
       <c r="H48" s="3">
-        <v>107000</v>
+        <v>108800</v>
       </c>
       <c r="I48" s="3">
-        <v>115100</v>
+        <v>117100</v>
       </c>
       <c r="J48" s="3">
-        <v>120200</v>
+        <v>122200</v>
       </c>
       <c r="K48" s="3">
         <v>118500</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>129700</v>
+        <v>131900</v>
       </c>
       <c r="E49" s="3">
-        <v>130100</v>
+        <v>132300</v>
       </c>
       <c r="F49" s="3">
-        <v>133400</v>
+        <v>135600</v>
       </c>
       <c r="G49" s="3">
-        <v>134600</v>
+        <v>136900</v>
       </c>
       <c r="H49" s="3">
-        <v>135200</v>
+        <v>137400</v>
       </c>
       <c r="I49" s="3">
-        <v>134800</v>
+        <v>137100</v>
       </c>
       <c r="J49" s="3">
-        <v>132800</v>
+        <v>135100</v>
       </c>
       <c r="K49" s="3">
         <v>104200</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="E52" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="F52" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="G52" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="H52" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="I52" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="J52" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="K52" s="3">
         <v>11900</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>380500</v>
+        <v>386900</v>
       </c>
       <c r="E54" s="3">
-        <v>373600</v>
+        <v>379900</v>
       </c>
       <c r="F54" s="3">
-        <v>396700</v>
+        <v>403400</v>
       </c>
       <c r="G54" s="3">
-        <v>399100</v>
+        <v>405800</v>
       </c>
       <c r="H54" s="3">
-        <v>412100</v>
+        <v>419000</v>
       </c>
       <c r="I54" s="3">
-        <v>431400</v>
+        <v>438700</v>
       </c>
       <c r="J54" s="3">
-        <v>441700</v>
+        <v>449100</v>
       </c>
       <c r="K54" s="3">
         <v>423900</v>
@@ -3474,22 +3474,22 @@
         <v>3300</v>
       </c>
       <c r="E58" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="F58" s="3">
-        <v>36300</v>
+        <v>36900</v>
       </c>
       <c r="G58" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="H58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I58" s="3">
         <v>21000</v>
       </c>
-      <c r="I58" s="3">
-        <v>20600</v>
-      </c>
       <c r="J58" s="3">
-        <v>21200</v>
+        <v>21500</v>
       </c>
       <c r="K58" s="3">
         <v>12600</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>158600</v>
+        <v>161300</v>
       </c>
       <c r="E59" s="3">
-        <v>143300</v>
+        <v>145700</v>
       </c>
       <c r="F59" s="3">
-        <v>174000</v>
+        <v>176900</v>
       </c>
       <c r="G59" s="3">
-        <v>168600</v>
+        <v>171500</v>
       </c>
       <c r="H59" s="3">
-        <v>168100</v>
+        <v>170900</v>
       </c>
       <c r="I59" s="3">
-        <v>168100</v>
+        <v>171000</v>
       </c>
       <c r="J59" s="3">
-        <v>178000</v>
+        <v>181000</v>
       </c>
       <c r="K59" s="3">
         <v>171400</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>164000</v>
+        <v>166700</v>
       </c>
       <c r="E60" s="3">
-        <v>179900</v>
+        <v>182900</v>
       </c>
       <c r="F60" s="3">
-        <v>211100</v>
+        <v>214600</v>
       </c>
       <c r="G60" s="3">
-        <v>190200</v>
+        <v>193400</v>
       </c>
       <c r="H60" s="3">
-        <v>189600</v>
+        <v>192800</v>
       </c>
       <c r="I60" s="3">
-        <v>189900</v>
+        <v>193100</v>
       </c>
       <c r="J60" s="3">
-        <v>200400</v>
+        <v>203800</v>
       </c>
       <c r="K60" s="3">
         <v>185400</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>59900</v>
+        <v>60900</v>
       </c>
       <c r="E61" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="F61" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="G61" s="3">
-        <v>58400</v>
+        <v>59400</v>
       </c>
       <c r="H61" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="I61" s="3">
-        <v>57000</v>
+        <v>58000</v>
       </c>
       <c r="J61" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="K61" s="3">
         <v>77200</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>83200</v>
+        <v>84600</v>
       </c>
       <c r="E62" s="3">
-        <v>87000</v>
+        <v>88500</v>
       </c>
       <c r="F62" s="3">
-        <v>80300</v>
+        <v>81700</v>
       </c>
       <c r="G62" s="3">
-        <v>80900</v>
+        <v>82200</v>
       </c>
       <c r="H62" s="3">
-        <v>85300</v>
+        <v>86800</v>
       </c>
       <c r="I62" s="3">
-        <v>88400</v>
+        <v>89900</v>
       </c>
       <c r="J62" s="3">
-        <v>96400</v>
+        <v>98000</v>
       </c>
       <c r="K62" s="3">
         <v>84900</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>308000</v>
+        <v>313200</v>
       </c>
       <c r="E66" s="3">
-        <v>297400</v>
+        <v>302400</v>
       </c>
       <c r="F66" s="3">
-        <v>322500</v>
+        <v>328000</v>
       </c>
       <c r="G66" s="3">
-        <v>330000</v>
+        <v>335500</v>
       </c>
       <c r="H66" s="3">
-        <v>334300</v>
+        <v>339900</v>
       </c>
       <c r="I66" s="3">
-        <v>337700</v>
+        <v>343300</v>
       </c>
       <c r="J66" s="3">
-        <v>357700</v>
+        <v>363700</v>
       </c>
       <c r="K66" s="3">
         <v>345400</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-27600</v>
+        <v>-28100</v>
       </c>
       <c r="E72" s="3">
-        <v>-23800</v>
+        <v>-24200</v>
       </c>
       <c r="F72" s="3">
-        <v>-24000</v>
+        <v>-24400</v>
       </c>
       <c r="G72" s="3">
-        <v>-28300</v>
+        <v>-28800</v>
       </c>
       <c r="H72" s="3">
-        <v>-19400</v>
+        <v>-19700</v>
       </c>
       <c r="I72" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J72" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="K72" s="3">
         <v>-17200</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72500</v>
+        <v>73800</v>
       </c>
       <c r="E76" s="3">
-        <v>76200</v>
+        <v>77500</v>
       </c>
       <c r="F76" s="3">
-        <v>74200</v>
+        <v>75400</v>
       </c>
       <c r="G76" s="3">
-        <v>69200</v>
+        <v>70300</v>
       </c>
       <c r="H76" s="3">
-        <v>77800</v>
+        <v>79100</v>
       </c>
       <c r="I76" s="3">
-        <v>93800</v>
+        <v>95300</v>
       </c>
       <c r="J76" s="3">
-        <v>84000</v>
+        <v>85400</v>
       </c>
       <c r="K76" s="3">
         <v>78500</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="E81" s="3">
         <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G81" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="H81" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="I81" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="J81" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K81" s="3">
         <v>3200</v>

--- a/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>REDU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40900</v>
+        <v>40500</v>
       </c>
       <c r="E8" s="3">
-        <v>57100</v>
+        <v>41300</v>
       </c>
       <c r="F8" s="3">
-        <v>50100</v>
+        <v>57500</v>
       </c>
       <c r="G8" s="3">
-        <v>25800</v>
+        <v>50500</v>
       </c>
       <c r="H8" s="3">
-        <v>17100</v>
+        <v>26000</v>
       </c>
       <c r="I8" s="3">
-        <v>65200</v>
+        <v>17200</v>
       </c>
       <c r="J8" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K8" s="3">
         <v>64400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>51400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>48600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>42000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>38800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>40400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>38600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>33700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>28100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="E9" s="3">
-        <v>24400</v>
+        <v>25600</v>
       </c>
       <c r="F9" s="3">
-        <v>25500</v>
+        <v>24600</v>
       </c>
       <c r="G9" s="3">
-        <v>22200</v>
+        <v>25700</v>
       </c>
       <c r="H9" s="3">
         <v>22300</v>
       </c>
       <c r="I9" s="3">
-        <v>28700</v>
+        <v>22500</v>
       </c>
       <c r="J9" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K9" s="3">
         <v>30700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>18000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>18800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15500</v>
+        <v>14700</v>
       </c>
       <c r="E10" s="3">
-        <v>32700</v>
+        <v>15700</v>
       </c>
       <c r="F10" s="3">
-        <v>24600</v>
+        <v>32900</v>
       </c>
       <c r="G10" s="3">
+        <v>24800</v>
+      </c>
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-5300</v>
       </c>
-      <c r="I10" s="3">
-        <v>36400</v>
-      </c>
       <c r="J10" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K10" s="3">
         <v>33600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>20800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>21200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>16900</v>
-      </c>
-      <c r="U10" s="3">
-        <v>14700</v>
       </c>
       <c r="V10" s="3">
         <v>14700</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,20 +1104,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>5800</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1116,8 +1136,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46400</v>
+        <v>48500</v>
       </c>
       <c r="E17" s="3">
-        <v>55400</v>
+        <v>46700</v>
       </c>
       <c r="F17" s="3">
-        <v>47100</v>
+        <v>55800</v>
       </c>
       <c r="G17" s="3">
-        <v>37400</v>
+        <v>47400</v>
       </c>
       <c r="H17" s="3">
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="I17" s="3">
-        <v>55700</v>
+        <v>37900</v>
       </c>
       <c r="J17" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K17" s="3">
         <v>54100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>32800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>59500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>32200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>27200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>25100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
-        <v>1600</v>
-      </c>
       <c r="F18" s="3">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="G18" s="3">
-        <v>-11600</v>
+        <v>3100</v>
       </c>
       <c r="H18" s="3">
-        <v>-20600</v>
+        <v>-11700</v>
       </c>
       <c r="I18" s="3">
-        <v>9500</v>
+        <v>-20700</v>
       </c>
       <c r="J18" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K18" s="3">
         <v>10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1486,34 +1523,37 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>-10100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>11100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>13200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
-      </c>
-      <c r="E22" s="3">
-        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>900</v>
@@ -1522,13 +1562,13 @@
         <v>900</v>
       </c>
       <c r="H22" s="3">
+        <v>900</v>
+      </c>
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1400</v>
       </c>
       <c r="K22" s="3">
         <v>1400</v>
@@ -1537,161 +1577,170 @@
         <v>1400</v>
       </c>
       <c r="M22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2300</v>
       </c>
-      <c r="F23" s="3">
-        <v>5200</v>
-      </c>
       <c r="G23" s="3">
-        <v>-11500</v>
+        <v>5300</v>
       </c>
       <c r="H23" s="3">
-        <v>-20600</v>
+        <v>-11600</v>
       </c>
       <c r="I23" s="3">
-        <v>9100</v>
+        <v>-20700</v>
       </c>
       <c r="J23" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K23" s="3">
         <v>9600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-9800</v>
-      </c>
       <c r="H26" s="3">
-        <v>-17500</v>
+        <v>-9900</v>
       </c>
       <c r="I26" s="3">
-        <v>7700</v>
+        <v>-17600</v>
       </c>
       <c r="J26" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K26" s="3">
         <v>5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-9100</v>
-      </c>
       <c r="H27" s="3">
-        <v>-16300</v>
+        <v>-9200</v>
       </c>
       <c r="I27" s="3">
-        <v>8000</v>
+        <v>-16400</v>
       </c>
       <c r="J27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K27" s="3">
         <v>6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>4600</v>
       </c>
       <c r="N27" s="3">
         <v>4600</v>
       </c>
       <c r="O27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P27" s="3">
         <v>6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-9100</v>
-      </c>
       <c r="H33" s="3">
-        <v>-16300</v>
+        <v>-9200</v>
       </c>
       <c r="I33" s="3">
-        <v>8000</v>
+        <v>-16400</v>
       </c>
       <c r="J33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K33" s="3">
         <v>6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>4600</v>
       </c>
       <c r="N33" s="3">
         <v>4600</v>
       </c>
       <c r="O33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P33" s="3">
         <v>6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-9100</v>
-      </c>
       <c r="H35" s="3">
-        <v>-16300</v>
+        <v>-9200</v>
       </c>
       <c r="I35" s="3">
-        <v>8000</v>
+        <v>-16400</v>
       </c>
       <c r="J35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K35" s="3">
         <v>6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>4600</v>
       </c>
       <c r="N35" s="3">
         <v>4600</v>
       </c>
       <c r="O35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P35" s="3">
         <v>6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,59 +2573,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>105700</v>
+        <v>80600</v>
       </c>
       <c r="E41" s="3">
-        <v>86800</v>
+        <v>106500</v>
       </c>
       <c r="F41" s="3">
-        <v>105900</v>
+        <v>87500</v>
       </c>
       <c r="G41" s="3">
-        <v>92200</v>
+        <v>106800</v>
       </c>
       <c r="H41" s="3">
-        <v>141400</v>
+        <v>92900</v>
       </c>
       <c r="I41" s="3">
-        <v>156400</v>
+        <v>142500</v>
       </c>
       <c r="J41" s="3">
+        <v>157600</v>
+      </c>
+      <c r="K41" s="3">
         <v>142100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>192400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>187100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>142900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>120100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>132700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>156700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>93900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2549,59 +2636,62 @@
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>30600</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>14000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>28000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15100</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>14800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2611,59 +2701,62 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
       </c>
       <c r="G43" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>22000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2673,16 +2766,19 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1200</v>
       </c>
       <c r="F44" s="3">
         <v>1200</v>
@@ -2691,41 +2787,41 @@
         <v>1200</v>
       </c>
       <c r="H44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1900</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1200</v>
       </c>
       <c r="Q44" s="3">
         <v>1200</v>
       </c>
       <c r="R44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S44" s="3">
         <v>1000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2735,59 +2831,62 @@
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="E45" s="3">
-        <v>28000</v>
+        <v>18100</v>
       </c>
       <c r="F45" s="3">
-        <v>28400</v>
+        <v>28300</v>
       </c>
       <c r="G45" s="3">
-        <v>40200</v>
+        <v>28600</v>
       </c>
       <c r="H45" s="3">
-        <v>13100</v>
+        <v>40500</v>
       </c>
       <c r="I45" s="3">
-        <v>11800</v>
+        <v>13200</v>
       </c>
       <c r="J45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,59 +2896,62 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>126300</v>
+        <v>100700</v>
       </c>
       <c r="E46" s="3">
-        <v>116600</v>
+        <v>127300</v>
       </c>
       <c r="F46" s="3">
-        <v>136100</v>
+        <v>117500</v>
       </c>
       <c r="G46" s="3">
-        <v>134000</v>
+        <v>137100</v>
       </c>
       <c r="H46" s="3">
-        <v>156000</v>
+        <v>135000</v>
       </c>
       <c r="I46" s="3">
-        <v>169800</v>
+        <v>157200</v>
       </c>
       <c r="J46" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K46" s="3">
         <v>174900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>189300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>205900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>203700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>195100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>185300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>187000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>169600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>143300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2870,8 +2975,8 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>5200</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>5200</v>
@@ -2885,8 +2990,8 @@
       <c r="J47" s="3">
         <v>5200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>5200</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2903,8 +3008,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2921,59 +3026,62 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>113500</v>
+        <v>109700</v>
       </c>
       <c r="E48" s="3">
-        <v>116900</v>
+        <v>114400</v>
       </c>
       <c r="F48" s="3">
-        <v>111800</v>
+        <v>117800</v>
       </c>
       <c r="G48" s="3">
-        <v>115500</v>
+        <v>112700</v>
       </c>
       <c r="H48" s="3">
-        <v>108800</v>
+        <v>116400</v>
       </c>
       <c r="I48" s="3">
-        <v>117100</v>
+        <v>109700</v>
       </c>
       <c r="J48" s="3">
+        <v>118000</v>
+      </c>
+      <c r="K48" s="3">
         <v>122200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>118500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2983,59 +3091,62 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>131900</v>
+        <v>131600</v>
       </c>
       <c r="E49" s="3">
-        <v>132300</v>
+        <v>132900</v>
       </c>
       <c r="F49" s="3">
-        <v>135600</v>
+        <v>133300</v>
       </c>
       <c r="G49" s="3">
-        <v>136900</v>
+        <v>136700</v>
       </c>
       <c r="H49" s="3">
-        <v>137400</v>
+        <v>137900</v>
       </c>
       <c r="I49" s="3">
-        <v>137100</v>
+        <v>138500</v>
       </c>
       <c r="J49" s="3">
+        <v>138200</v>
+      </c>
+      <c r="K49" s="3">
         <v>135100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>104200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>102600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>100200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>97100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>94700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>94000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>100400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>97300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,59 +3286,62 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15300</v>
+        <v>21600</v>
       </c>
       <c r="E52" s="3">
-        <v>14100</v>
+        <v>15400</v>
       </c>
       <c r="F52" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="G52" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="H52" s="3">
-        <v>11600</v>
+        <v>14300</v>
       </c>
       <c r="I52" s="3">
-        <v>9500</v>
+        <v>11700</v>
       </c>
       <c r="J52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K52" s="3">
         <v>11800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,59 +3416,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>386900</v>
+        <v>363500</v>
       </c>
       <c r="E54" s="3">
-        <v>379900</v>
+        <v>389900</v>
       </c>
       <c r="F54" s="3">
-        <v>403400</v>
+        <v>382800</v>
       </c>
       <c r="G54" s="3">
-        <v>405800</v>
+        <v>406400</v>
       </c>
       <c r="H54" s="3">
-        <v>419000</v>
+        <v>408900</v>
       </c>
       <c r="I54" s="3">
-        <v>438700</v>
+        <v>422300</v>
       </c>
       <c r="J54" s="3">
+        <v>442000</v>
+      </c>
+      <c r="K54" s="3">
         <v>449100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>423900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>429500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>331200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>315900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>303400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>302800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>290300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>259900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,59 +3533,60 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1200</v>
       </c>
       <c r="J57" s="3">
         <v>1200</v>
       </c>
       <c r="K57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,50 +3608,50 @@
         <v>3300</v>
       </c>
       <c r="E58" s="3">
-        <v>35500</v>
+        <v>3400</v>
       </c>
       <c r="F58" s="3">
-        <v>36900</v>
+        <v>35800</v>
       </c>
       <c r="G58" s="3">
-        <v>21300</v>
+        <v>37200</v>
       </c>
       <c r="H58" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="I58" s="3">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="J58" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K58" s="3">
         <v>21500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>36600</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3527,59 +3661,62 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>161300</v>
+        <v>148200</v>
       </c>
       <c r="E59" s="3">
-        <v>145700</v>
+        <v>162500</v>
       </c>
       <c r="F59" s="3">
-        <v>176900</v>
+        <v>146800</v>
       </c>
       <c r="G59" s="3">
-        <v>171500</v>
+        <v>178300</v>
       </c>
       <c r="H59" s="3">
-        <v>170900</v>
+        <v>172800</v>
       </c>
       <c r="I59" s="3">
-        <v>171000</v>
+        <v>172300</v>
       </c>
       <c r="J59" s="3">
+        <v>172300</v>
+      </c>
+      <c r="K59" s="3">
         <v>181000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>171400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>196400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>172500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>168600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>163500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>173000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>148300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>139200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3589,59 +3726,62 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>166700</v>
+        <v>153100</v>
       </c>
       <c r="E60" s="3">
-        <v>182900</v>
+        <v>168000</v>
       </c>
       <c r="F60" s="3">
-        <v>214600</v>
+        <v>184300</v>
       </c>
       <c r="G60" s="3">
-        <v>193400</v>
+        <v>216300</v>
       </c>
       <c r="H60" s="3">
-        <v>192800</v>
+        <v>194900</v>
       </c>
       <c r="I60" s="3">
-        <v>193100</v>
+        <v>194300</v>
       </c>
       <c r="J60" s="3">
+        <v>194600</v>
+      </c>
+      <c r="K60" s="3">
         <v>203800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>185400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>210000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>185700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>183400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>165600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>174200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>153000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>176200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3651,59 +3791,62 @@
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>60900</v>
+        <v>60700</v>
       </c>
       <c r="E61" s="3">
-        <v>30000</v>
+        <v>61400</v>
       </c>
       <c r="F61" s="3">
-        <v>31000</v>
+        <v>30200</v>
       </c>
       <c r="G61" s="3">
-        <v>59400</v>
+        <v>31200</v>
       </c>
       <c r="H61" s="3">
+        <v>59800</v>
+      </c>
+      <c r="I61" s="3">
+        <v>59700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K61" s="3">
         <v>59200</v>
       </c>
-      <c r="I61" s="3">
-        <v>58000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>59200</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>77200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>74900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>73000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>68300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>78200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>75700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>92500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>97200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3713,59 +3856,62 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>84600</v>
+        <v>81900</v>
       </c>
       <c r="E62" s="3">
-        <v>88500</v>
+        <v>85300</v>
       </c>
       <c r="F62" s="3">
-        <v>81700</v>
+        <v>89200</v>
       </c>
       <c r="G62" s="3">
-        <v>82200</v>
+        <v>82300</v>
       </c>
       <c r="H62" s="3">
-        <v>86800</v>
+        <v>82800</v>
       </c>
       <c r="I62" s="3">
-        <v>89900</v>
+        <v>87400</v>
       </c>
       <c r="J62" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K62" s="3">
         <v>98000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>73100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>5800</v>
       </c>
       <c r="O62" s="3">
         <v>5800</v>
       </c>
       <c r="P62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="Q62" s="3">
         <v>5300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,59 +4116,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>313200</v>
+        <v>296900</v>
       </c>
       <c r="E66" s="3">
-        <v>302400</v>
+        <v>315600</v>
       </c>
       <c r="F66" s="3">
-        <v>328000</v>
+        <v>304700</v>
       </c>
       <c r="G66" s="3">
-        <v>335500</v>
+        <v>330500</v>
       </c>
       <c r="H66" s="3">
-        <v>339900</v>
+        <v>338100</v>
       </c>
       <c r="I66" s="3">
-        <v>343300</v>
+        <v>342500</v>
       </c>
       <c r="J66" s="3">
+        <v>346000</v>
+      </c>
+      <c r="K66" s="3">
         <v>363700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>345400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>355600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>265000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>255000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>247600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>253000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>244300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>272800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,59 +4466,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28100</v>
+        <v>-36600</v>
       </c>
       <c r="E72" s="3">
-        <v>-24200</v>
+        <v>-28300</v>
       </c>
       <c r="F72" s="3">
         <v>-24400</v>
       </c>
       <c r="G72" s="3">
-        <v>-28800</v>
+        <v>-24600</v>
       </c>
       <c r="H72" s="3">
-        <v>-19700</v>
+        <v>-29000</v>
       </c>
       <c r="I72" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-3500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,59 +4726,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73800</v>
+        <v>66600</v>
       </c>
       <c r="E76" s="3">
-        <v>77500</v>
+        <v>74300</v>
       </c>
       <c r="F76" s="3">
-        <v>75400</v>
+        <v>78100</v>
       </c>
       <c r="G76" s="3">
-        <v>70300</v>
+        <v>76000</v>
       </c>
       <c r="H76" s="3">
-        <v>79100</v>
+        <v>70900</v>
       </c>
       <c r="I76" s="3">
-        <v>95300</v>
+        <v>79700</v>
       </c>
       <c r="J76" s="3">
+        <v>96100</v>
+      </c>
+      <c r="K76" s="3">
         <v>85400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>78500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>66200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>60900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>55900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-9100</v>
-      </c>
       <c r="H81" s="3">
-        <v>-16300</v>
+        <v>-9200</v>
       </c>
       <c r="I81" s="3">
-        <v>8000</v>
+        <v>-16400</v>
       </c>
       <c r="J81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K81" s="3">
         <v>6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>4600</v>
       </c>
       <c r="N81" s="3">
         <v>4600</v>
       </c>
       <c r="O81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P81" s="3">
         <v>6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REDU_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>40500</v>
+        <v>37800</v>
       </c>
       <c r="E8" s="3">
-        <v>41300</v>
+        <v>38500</v>
       </c>
       <c r="F8" s="3">
-        <v>57500</v>
+        <v>53700</v>
       </c>
       <c r="G8" s="3">
-        <v>50500</v>
+        <v>47200</v>
       </c>
       <c r="H8" s="3">
-        <v>26000</v>
+        <v>24300</v>
       </c>
       <c r="I8" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="J8" s="3">
-        <v>65700</v>
+        <v>61300</v>
       </c>
       <c r="K8" s="3">
         <v>64400</v>
@@ -828,25 +828,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25800</v>
+        <v>24100</v>
       </c>
       <c r="E9" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="F9" s="3">
-        <v>24600</v>
+        <v>23000</v>
       </c>
       <c r="G9" s="3">
-        <v>25700</v>
+        <v>24000</v>
       </c>
       <c r="H9" s="3">
-        <v>22300</v>
+        <v>20900</v>
       </c>
       <c r="I9" s="3">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="J9" s="3">
-        <v>29000</v>
+        <v>27100</v>
       </c>
       <c r="K9" s="3">
         <v>30700</v>
@@ -893,25 +893,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14700</v>
+        <v>13700</v>
       </c>
       <c r="E10" s="3">
-        <v>15700</v>
+        <v>14600</v>
       </c>
       <c r="F10" s="3">
-        <v>32900</v>
+        <v>30700</v>
       </c>
       <c r="G10" s="3">
-        <v>24800</v>
+        <v>23100</v>
       </c>
       <c r="H10" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="I10" s="3">
-        <v>-5300</v>
+        <v>-4900</v>
       </c>
       <c r="J10" s="3">
-        <v>36700</v>
+        <v>34300</v>
       </c>
       <c r="K10" s="3">
         <v>33600</v>
@@ -1119,7 +1119,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1265,25 +1265,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48500</v>
+        <v>45300</v>
       </c>
       <c r="E17" s="3">
-        <v>46700</v>
+        <v>43700</v>
       </c>
       <c r="F17" s="3">
-        <v>55800</v>
+        <v>52200</v>
       </c>
       <c r="G17" s="3">
-        <v>47400</v>
+        <v>44300</v>
       </c>
       <c r="H17" s="3">
-        <v>37700</v>
+        <v>35200</v>
       </c>
       <c r="I17" s="3">
-        <v>37900</v>
+        <v>35400</v>
       </c>
       <c r="J17" s="3">
-        <v>56100</v>
+        <v>52400</v>
       </c>
       <c r="K17" s="3">
         <v>54100</v>
@@ -1330,25 +1330,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8000</v>
+        <v>-7500</v>
       </c>
       <c r="E18" s="3">
-        <v>-5500</v>
+        <v>-5100</v>
       </c>
       <c r="F18" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="G18" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H18" s="3">
-        <v>-11700</v>
+        <v>-10900</v>
       </c>
       <c r="I18" s="3">
-        <v>-20700</v>
+        <v>-19400</v>
       </c>
       <c r="J18" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="K18" s="3">
         <v>10300</v>
@@ -1420,25 +1420,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
-        <v>1100</v>
-      </c>
       <c r="J20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1550,25 +1550,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
-        <v>900</v>
-      </c>
       <c r="F22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H22" s="3">
         <v>900</v>
       </c>
       <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3">
         <v>1100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>1400</v>
@@ -1615,25 +1615,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7900</v>
+        <v>-7400</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-3900</v>
       </c>
       <c r="F23" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="G23" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="H23" s="3">
-        <v>-11600</v>
+        <v>-10800</v>
       </c>
       <c r="I23" s="3">
-        <v>-20700</v>
+        <v>-19400</v>
       </c>
       <c r="J23" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="K23" s="3">
         <v>9600</v>
@@ -1686,19 +1686,19 @@
         <v>-200</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I24" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="J24" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K24" s="3">
         <v>3800</v>
@@ -1810,25 +1810,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7900</v>
+        <v>-7400</v>
       </c>
       <c r="E26" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="F26" s="3">
         <v>500</v>
       </c>
       <c r="G26" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="H26" s="3">
-        <v>-9900</v>
+        <v>-9200</v>
       </c>
       <c r="I26" s="3">
-        <v>-17600</v>
+        <v>-16500</v>
       </c>
       <c r="J26" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="K26" s="3">
         <v>5800</v>
@@ -1875,25 +1875,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8300</v>
+        <v>-7800</v>
       </c>
       <c r="E27" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H27" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="I27" s="3">
-        <v>-16400</v>
+        <v>-15300</v>
       </c>
       <c r="J27" s="3">
-        <v>8100</v>
+        <v>7500</v>
       </c>
       <c r="K27" s="3">
         <v>6200</v>
@@ -2200,25 +2200,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1100</v>
-      </c>
       <c r="J32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -2265,25 +2265,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8300</v>
+        <v>-7800</v>
       </c>
       <c r="E33" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H33" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="I33" s="3">
-        <v>-16400</v>
+        <v>-15300</v>
       </c>
       <c r="J33" s="3">
-        <v>8100</v>
+        <v>7500</v>
       </c>
       <c r="K33" s="3">
         <v>6200</v>
@@ -2395,25 +2395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8300</v>
+        <v>-7800</v>
       </c>
       <c r="E35" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H35" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="I35" s="3">
-        <v>-16400</v>
+        <v>-15300</v>
       </c>
       <c r="J35" s="3">
-        <v>8100</v>
+        <v>7500</v>
       </c>
       <c r="K35" s="3">
         <v>6200</v>
@@ -2580,25 +2580,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>80600</v>
+        <v>75300</v>
       </c>
       <c r="E41" s="3">
-        <v>106500</v>
+        <v>99500</v>
       </c>
       <c r="F41" s="3">
-        <v>87500</v>
+        <v>81700</v>
       </c>
       <c r="G41" s="3">
-        <v>106800</v>
+        <v>99700</v>
       </c>
       <c r="H41" s="3">
-        <v>92900</v>
+        <v>86700</v>
       </c>
       <c r="I41" s="3">
-        <v>142500</v>
+        <v>133100</v>
       </c>
       <c r="J41" s="3">
-        <v>157600</v>
+        <v>147200</v>
       </c>
       <c r="K41" s="3">
         <v>142100</v>
@@ -2710,19 +2710,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
       </c>
       <c r="H43" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -2775,25 +2775,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F44" s="3">
         <v>1200</v>
       </c>
       <c r="G44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1400</v>
       </c>
       <c r="K44" s="3">
         <v>1300</v>
@@ -2840,25 +2840,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17400</v>
+        <v>16200</v>
       </c>
       <c r="E45" s="3">
-        <v>18100</v>
+        <v>17000</v>
       </c>
       <c r="F45" s="3">
-        <v>28300</v>
+        <v>26400</v>
       </c>
       <c r="G45" s="3">
-        <v>28600</v>
+        <v>26700</v>
       </c>
       <c r="H45" s="3">
-        <v>40500</v>
+        <v>37800</v>
       </c>
       <c r="I45" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="J45" s="3">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="K45" s="3">
         <v>15200</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100700</v>
+        <v>94100</v>
       </c>
       <c r="E46" s="3">
-        <v>127300</v>
+        <v>118900</v>
       </c>
       <c r="F46" s="3">
-        <v>117500</v>
+        <v>109700</v>
       </c>
       <c r="G46" s="3">
-        <v>137100</v>
+        <v>128100</v>
       </c>
       <c r="H46" s="3">
-        <v>135000</v>
+        <v>126100</v>
       </c>
       <c r="I46" s="3">
-        <v>157200</v>
+        <v>146800</v>
       </c>
       <c r="J46" s="3">
-        <v>171100</v>
+        <v>159900</v>
       </c>
       <c r="K46" s="3">
         <v>174900</v>
@@ -2979,16 +2979,16 @@
         <v>8</v>
       </c>
       <c r="G47" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="H47" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="I47" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="J47" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="K47" s="3">
         <v>5200</v>
@@ -3035,25 +3035,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>109700</v>
+        <v>102400</v>
       </c>
       <c r="E48" s="3">
-        <v>114400</v>
+        <v>106800</v>
       </c>
       <c r="F48" s="3">
-        <v>117800</v>
+        <v>110100</v>
       </c>
       <c r="G48" s="3">
-        <v>112700</v>
+        <v>105200</v>
       </c>
       <c r="H48" s="3">
-        <v>116400</v>
+        <v>108700</v>
       </c>
       <c r="I48" s="3">
-        <v>109700</v>
+        <v>102400</v>
       </c>
       <c r="J48" s="3">
-        <v>118000</v>
+        <v>110200</v>
       </c>
       <c r="K48" s="3">
         <v>122200</v>
@@ -3100,25 +3100,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>131600</v>
+        <v>122900</v>
       </c>
       <c r="E49" s="3">
-        <v>132900</v>
+        <v>124100</v>
       </c>
       <c r="F49" s="3">
-        <v>133300</v>
+        <v>124500</v>
       </c>
       <c r="G49" s="3">
-        <v>136700</v>
+        <v>127700</v>
       </c>
       <c r="H49" s="3">
-        <v>137900</v>
+        <v>128800</v>
       </c>
       <c r="I49" s="3">
-        <v>138500</v>
+        <v>129400</v>
       </c>
       <c r="J49" s="3">
-        <v>138200</v>
+        <v>129100</v>
       </c>
       <c r="K49" s="3">
         <v>135100</v>
@@ -3295,25 +3295,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21600</v>
+        <v>20200</v>
       </c>
       <c r="E52" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="F52" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="G52" s="3">
-        <v>14800</v>
+        <v>13800</v>
       </c>
       <c r="H52" s="3">
-        <v>14300</v>
+        <v>13400</v>
       </c>
       <c r="I52" s="3">
-        <v>11700</v>
+        <v>10900</v>
       </c>
       <c r="J52" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="K52" s="3">
         <v>11800</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>363500</v>
+        <v>339600</v>
       </c>
       <c r="E54" s="3">
-        <v>389900</v>
+        <v>364200</v>
       </c>
       <c r="F54" s="3">
-        <v>382800</v>
+        <v>357600</v>
       </c>
       <c r="G54" s="3">
-        <v>406400</v>
+        <v>379700</v>
       </c>
       <c r="H54" s="3">
-        <v>408900</v>
+        <v>382000</v>
       </c>
       <c r="I54" s="3">
-        <v>422300</v>
+        <v>394400</v>
       </c>
       <c r="J54" s="3">
-        <v>442000</v>
+        <v>412900</v>
       </c>
       <c r="K54" s="3">
         <v>449100</v>
@@ -3540,25 +3540,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1700</v>
-      </c>
       <c r="G57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K57" s="3">
         <v>1200</v>
@@ -3605,25 +3605,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="F58" s="3">
-        <v>35800</v>
+        <v>33400</v>
       </c>
       <c r="G58" s="3">
-        <v>37200</v>
+        <v>34800</v>
       </c>
       <c r="H58" s="3">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="I58" s="3">
-        <v>21500</v>
+        <v>20100</v>
       </c>
       <c r="J58" s="3">
-        <v>21100</v>
+        <v>19700</v>
       </c>
       <c r="K58" s="3">
         <v>21500</v>
@@ -3670,25 +3670,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>148200</v>
+        <v>138500</v>
       </c>
       <c r="E59" s="3">
-        <v>162500</v>
+        <v>151800</v>
       </c>
       <c r="F59" s="3">
-        <v>146800</v>
+        <v>137100</v>
       </c>
       <c r="G59" s="3">
-        <v>178300</v>
+        <v>166500</v>
       </c>
       <c r="H59" s="3">
-        <v>172800</v>
+        <v>161400</v>
       </c>
       <c r="I59" s="3">
-        <v>172300</v>
+        <v>160900</v>
       </c>
       <c r="J59" s="3">
-        <v>172300</v>
+        <v>160900</v>
       </c>
       <c r="K59" s="3">
         <v>181000</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>153100</v>
+        <v>143000</v>
       </c>
       <c r="E60" s="3">
-        <v>168000</v>
+        <v>156900</v>
       </c>
       <c r="F60" s="3">
-        <v>184300</v>
+        <v>172200</v>
       </c>
       <c r="G60" s="3">
-        <v>216300</v>
+        <v>202000</v>
       </c>
       <c r="H60" s="3">
-        <v>194900</v>
+        <v>182100</v>
       </c>
       <c r="I60" s="3">
-        <v>194300</v>
+        <v>181400</v>
       </c>
       <c r="J60" s="3">
-        <v>194600</v>
+        <v>181800</v>
       </c>
       <c r="K60" s="3">
         <v>203800</v>
@@ -3800,25 +3800,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>60700</v>
+        <v>56700</v>
       </c>
       <c r="E61" s="3">
-        <v>61400</v>
+        <v>57400</v>
       </c>
       <c r="F61" s="3">
-        <v>30200</v>
+        <v>28200</v>
       </c>
       <c r="G61" s="3">
-        <v>31200</v>
+        <v>29200</v>
       </c>
       <c r="H61" s="3">
-        <v>59800</v>
+        <v>55900</v>
       </c>
       <c r="I61" s="3">
-        <v>59700</v>
+        <v>55700</v>
       </c>
       <c r="J61" s="3">
-        <v>58400</v>
+        <v>54500</v>
       </c>
       <c r="K61" s="3">
         <v>59200</v>
@@ -3865,25 +3865,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>81900</v>
+        <v>76500</v>
       </c>
       <c r="E62" s="3">
-        <v>85300</v>
+        <v>79700</v>
       </c>
       <c r="F62" s="3">
-        <v>89200</v>
+        <v>83300</v>
       </c>
       <c r="G62" s="3">
-        <v>82300</v>
+        <v>76900</v>
       </c>
       <c r="H62" s="3">
-        <v>82800</v>
+        <v>77400</v>
       </c>
       <c r="I62" s="3">
-        <v>87400</v>
+        <v>81700</v>
       </c>
       <c r="J62" s="3">
-        <v>90500</v>
+        <v>84600</v>
       </c>
       <c r="K62" s="3">
         <v>98000</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>296900</v>
+        <v>277400</v>
       </c>
       <c r="E66" s="3">
-        <v>315600</v>
+        <v>294800</v>
       </c>
       <c r="F66" s="3">
-        <v>304700</v>
+        <v>284600</v>
       </c>
       <c r="G66" s="3">
-        <v>330500</v>
+        <v>308700</v>
       </c>
       <c r="H66" s="3">
-        <v>338100</v>
+        <v>315800</v>
       </c>
       <c r="I66" s="3">
-        <v>342500</v>
+        <v>320000</v>
       </c>
       <c r="J66" s="3">
-        <v>346000</v>
+        <v>323200</v>
       </c>
       <c r="K66" s="3">
         <v>363700</v>
@@ -4475,25 +4475,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-36600</v>
+        <v>-34200</v>
       </c>
       <c r="E72" s="3">
-        <v>-28300</v>
+        <v>-26400</v>
       </c>
       <c r="F72" s="3">
-        <v>-24400</v>
+        <v>-22800</v>
       </c>
       <c r="G72" s="3">
-        <v>-24600</v>
+        <v>-23000</v>
       </c>
       <c r="H72" s="3">
-        <v>-29000</v>
+        <v>-27100</v>
       </c>
       <c r="I72" s="3">
-        <v>-19900</v>
+        <v>-18600</v>
       </c>
       <c r="J72" s="3">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
       <c r="K72" s="3">
         <v>-11500</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66600</v>
+        <v>62200</v>
       </c>
       <c r="E76" s="3">
-        <v>74300</v>
+        <v>69400</v>
       </c>
       <c r="F76" s="3">
-        <v>78100</v>
+        <v>73000</v>
       </c>
       <c r="G76" s="3">
-        <v>76000</v>
+        <v>71000</v>
       </c>
       <c r="H76" s="3">
-        <v>70900</v>
+        <v>66200</v>
       </c>
       <c r="I76" s="3">
-        <v>79700</v>
+        <v>74500</v>
       </c>
       <c r="J76" s="3">
-        <v>96100</v>
+        <v>89700</v>
       </c>
       <c r="K76" s="3">
         <v>85400</v>
@@ -4935,25 +4935,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8300</v>
+        <v>-7800</v>
       </c>
       <c r="E81" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="H81" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="I81" s="3">
-        <v>-16400</v>
+        <v>-15300</v>
       </c>
       <c r="J81" s="3">
-        <v>8100</v>
+        <v>7500</v>
       </c>
       <c r="K81" s="3">
         <v>6200</v>
